--- a/aeri2010_data_reconciled.xlsx
+++ b/aeri2010_data_reconciled.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HeatherSoyka/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\AERI Grand Challenges\Uploaded to GitHub and finalized\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5239ECB-48BD-D74B-88C7-178A60E4327D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE4A8CD-AEEA-422A-8DDF-CCC399C96A45}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="37880" windowHeight="23700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12336" windowHeight="8640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="289">
   <si>
     <t>ID Number</t>
   </si>
@@ -120,30 +115,18 @@
     <t>Order As Received: A Foundational Virtual Order for Digital Records</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hea Lim Rhee</t>
-  </si>
-  <si>
     <t>University of Pittsburgh</t>
   </si>
   <si>
     <t xml:space="preserve"> Exploring the Relationship between Archival Appraisal Practice and User Studies in U.S. State Archives and Records Management Programs</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jane Zhang</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Simmons College</t>
-  </si>
-  <si>
     <t>The Principle of Original Order and the Organization and Representation of Digital Archives</t>
   </si>
   <si>
     <t>Alexandra Eveleigh</t>
   </si>
   <si>
-    <t>We Think, Not I Think': Implications of User Participation for Archival Theory and Practice</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lorraine Eakin-Richards </t>
   </si>
   <si>
@@ -156,9 +139,6 @@
     <t>Challenges/Problems in Use, Re-Use, and Sharing</t>
   </si>
   <si>
-    <t xml:space="preserve"> Brian Cumer</t>
-  </si>
-  <si>
     <t>Carlos Ovalle</t>
   </si>
   <si>
@@ -171,9 +151,6 @@
     <t xml:space="preserve">Audiovisual Materiality and the Archival World </t>
   </si>
   <si>
-    <t xml:space="preserve"> Snowden Becker</t>
-  </si>
-  <si>
     <t>Brian Hubner</t>
   </si>
   <si>
@@ -216,18 +193,12 @@
     <t>Metadata, Systems, Implementation, and Standardization</t>
   </si>
   <si>
-    <t xml:space="preserve"> Implementing PREMIS: A Case Study of the Florida Digital Archive.</t>
-  </si>
-  <si>
     <t>Reaping Rich Harvests: Opportunities in Implementing EAC.</t>
   </si>
   <si>
     <t>Advancing Digital Preservation with Digital Forensics</t>
   </si>
   <si>
-    <t xml:space="preserve"> ISAD(G) and the development of archival descriptive standard in Korea</t>
-  </si>
-  <si>
     <t>Karen Gracy</t>
   </si>
   <si>
@@ -252,12 +223,6 @@
     <t>Recordkeeping Realities</t>
   </si>
   <si>
-    <t xml:space="preserve"> Investigating Individuals’ Conscious Decisions to Maintain Digital Possessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Joanne Mihelcic</t>
-  </si>
-  <si>
     <t>The Storyline Project: Determining a therapeutic use for the personal archive.</t>
   </si>
   <si>
@@ -267,21 +232,12 @@
     <t>Simmons College</t>
   </si>
   <si>
-    <t>. Contributions from the Archival Profession to the Literature of Recordkeeping Behavior</t>
-  </si>
-  <si>
     <t>Michael Wartenbe</t>
   </si>
   <si>
-    <t xml:space="preserve"> Electronic Health Records and the Health Information Technology for Economic and Clinical Health (HITECH) Act</t>
-  </si>
-  <si>
     <t>Renegotiating Principles and Practices</t>
   </si>
   <si>
-    <t xml:space="preserve"> Michelle Caswell</t>
-  </si>
-  <si>
     <t>Shannon Faulkhead</t>
   </si>
   <si>
@@ -300,9 +256,6 @@
     <t>University of Toronto</t>
   </si>
   <si>
-    <t xml:space="preserve"> Issues Regarding Records Management in Enterprises and Organizations in the Public Sector</t>
-  </si>
-  <si>
     <t>Organizational Cultures and Records Classification Practices. Findings of an Empirical Study of Four Central Banks</t>
   </si>
   <si>
@@ -312,9 +265,6 @@
     <t>Challenges in Health Records Management at Medium-sized Dental Clinics</t>
   </si>
   <si>
-    <t>Proscovia Svard</t>
-  </si>
-  <si>
     <t>Mid Sweden University</t>
   </si>
   <si>
@@ -324,15 +274,9 @@
     <t>Maria Kallberg</t>
   </si>
   <si>
-    <t xml:space="preserve"> Professional Challenges in Electronic Recordkeeping in Sweden</t>
-  </si>
-  <si>
     <t>Amy Harris</t>
   </si>
   <si>
-    <t>“The Native American Dioramas and the Exhibit Museum”</t>
-  </si>
-  <si>
     <t>Closing Plenary</t>
   </si>
   <si>
@@ -342,9 +286,6 @@
     <t>AERI Feedback 2010 and Future (2011 and beyond)</t>
   </si>
   <si>
-    <t>Plenary Talk</t>
-  </si>
-  <si>
     <t>Plenary</t>
   </si>
   <si>
@@ -357,30 +298,15 @@
     <t>Concurrent</t>
   </si>
   <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>https://aeri.gseis.ucla.edu/Archival%20Principles%20and%20Practices%20Re-Examined%20-%20AERI%202010.pdf</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>University of California Los Angeles</t>
   </si>
   <si>
     <t>University of North Carolina</t>
   </si>
   <si>
-    <t>University of Michigan; Rhode Island State Archives</t>
-  </si>
-  <si>
     <t>University of Texas</t>
   </si>
   <si>
-    <t>Institute for Museum and Library Services</t>
-  </si>
-  <si>
     <t>University College London</t>
   </si>
   <si>
@@ -411,9 +337,6 @@
     <t>McGill University</t>
   </si>
   <si>
-    <t>University of South Carolina; University of Pittsburgh; Mid Sweden University</t>
-  </si>
-  <si>
     <t xml:space="preserve">University of Michigan </t>
   </si>
   <si>
@@ -477,20 +400,9 @@
     <t>Denise Anthony</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Carol Brock, Katie Pierce and April Norris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Joel Blanco-Rivera</t>
-  </si>
-  <si>
     <t>Ellen Rae Cachola</t>
   </si>
   <si>
-    <t>Kaitlin Costello and Jason Priem</t>
-  </si>
-  <si>
     <t>Richard Cox</t>
   </si>
   <si>
@@ -501,9 +413,6 @@
   </si>
   <si>
     <t>Leisa Gibbons</t>
-  </si>
-  <si>
-    <t>University of California, Los Angeles</t>
   </si>
   <si>
     <t>University of Maryland</t>
@@ -625,12 +534,6 @@
     <t>The goal of this workshop would be to encourage scholars in Archival Studies to take a more active role in IR research and publication by reviewing key concepts and approaches within IR research (primarily within Information Science and Digital Library development) and demonstrating how these might be applied in traditional and digital archives contexts, identifying how practicing archivists currently conduct IR (e.g., exploiting context, documentary relationships, and provenance), and identifying possible research questions and research designs for addressing those questions.</t>
   </si>
   <si>
-    <t>All tenure-track Junior Faculty at AERI are invited to participate in a workshop on "Creating the Tenure Package". In order to participate everyone must submit the following materials by June 11th, 2010 to Helen Tibbo: tibbo at email dot unc dot edu
-1. Outlines/drafts of teaching, service, and research statements for either a 3rd year review or tenure 2. CVs 3. Your institution's guidelines for tenure and promotion The first part of the workshop will be spent discussing the tenure process in general, dissecting institutional guidelines, and the role of the 3rd year review.
-Participants will then review and provide feedback to each other on the teaching, service, and research statements submitted. The idea is to learn from one another and the convener who has reviewed multiple tenure packages. Seeing other peoples’ materials will help you to contextualize your own in the vast sea of possibilities. The workshop will end with a review of CVs and the VERY IMPORTANT process of
-identifying your external letter writers.</t>
-  </si>
-  <si>
     <t>With the founding of the Society of American Archivists, 1936 was a big year for the archival profession in the United States. It was also the year in which Dale Carnegie produced the mother of all self-help books, How to Win Friends and Influence People. Carnegie articulated ways to "make people like you," "win people to your way of thinking," and "change people without giving offense or arousing resentment."
 Much has been written about the need for archivists to reach out to allied professionals in order to ensure appropriate recordkeeping and contribute to the formation of social memory. The archival literature has paid much less attention to successful models for collaborative research. Who are the most promising research partners, how do we partner with them, and what will be gained from the partnerships?
 In this plenary talk, Cal Lee will provide his perspective on the place of archival research within the larger ecosystem of academic disciplines and strategies for advancing this research trough inter-disciplinary collaboration. Successful collaboration does not come for free; all parties involved must recognize the value that they derive from and contribute to the process. Cal will adapt Carnegie’s principles to address interdisciplinarity in archival research. More specifically, he will discuss the confluence (both potential and actual) of research streams related to the stewardship of digital collections. His comments will be based on the literature of numerous related disciplines, his own research experiences, and lessons he has learned from the research activities of mentors, colleagues and students.</t>
@@ -644,6 +547,312 @@
   </si>
   <si>
     <t>This workshop will provide an introduction to User Studies including a brief overview of the type of studies that have been undertaken by archival researchers including the Archival Metrics project. It will discuss the various theoretical frameworks prominent in social science research and describe how the various frameworks affect data gathering techniques. Participants will develop questions for use in a questionnaire and/or interviewing protocol. Participants are encouraged to bring draft interview protocols or questionnaires and present them to the workshop.</t>
+  </si>
+  <si>
+    <t>The detection and restoration of the “original order” of the archival fonds by the process of physical arrangement has been an important archival task. Digital records’ affordances, however, mean that in active use they may lend themselves to multiple virtual orderings, none of them representing an actual physical ordering on any medium. I will discuss experiments in archiving digital records capturing a formal “order as received” including the overt and forensically available orderings of digital files on legacy media prepared by the creator/donor. The discussion includes the archiving process and the documentation of the set of derivative orderings available through the original operating system in which the medium was created. This practice is designed to capture a specific “raw” state of the fonds, to provide to the potential user a representation of an otherwise invisible stage in archival processing, and to create a documented basis for other derivative orderings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This dissertation research is designed to investigate whether the archival principle of original order, originating from the nineteenth century European paper-based records tradition, continues to be the guiding principle in the organization and representation of digital archival collections in the twenty-first century. The investigation focuses on the three aspects of original order identified from the literature - its definitions, purposes, and representations, as reflected in the three key research questions: 1) What defines original order in digital environments? 2) What value does original order contribute to digital archives? 3) What role does original order play in digital archival representation? The content of the presentation will cover construction of conceptual framework, development of research questions, research design and methodology, methods of data collecting, coding and analysis, and preliminary findings. </t>
+  </si>
+  <si>
+    <t>Almost a decade ago, Brian Brothman published “The Past that Archives Keep: Memory, History, and the Preservation of Archival Records.” As a prelude to this piece, he quoted a passage from Octavio Paz’s The Labyrinth of Solitude, in which Paz explored notions of identity and the manner by which Mexico had divided itself into an “original,” indigenous culture and the “newer,” Spanish culture, thereby forcing itself into a fragmented solitude, living in essential self-denial. Walking a similar path, Brothman explored the ways that new technologies and theoretical debates in the archival field had created gaps in archival research that were undermining the influence of the archival mission itself, leaving the profession at risk of dissolving into its own fragmented solitude. He ended by saying, “Archives need fresh arguments grounded in new corporate and social epistemologies. Failure to find them may well mean a repeated history of indifference to and limited funding of the archival mission, and by-passing of archivists.”
+We now exist in a space in which these “new corporate and social epistemologies” have become increasingly relevant to archives and archivists. Funding trends reflect the growing interest in how to ensure that digital preservation efforts can be financially sustained and efficiently managed. Financial support for research on the economic sustainability of digital preservation has led, for example, to the reports by the Blue Ribbon Task Force on the Sustainability of Digital Preservation and Access, funded by the National Science Foundation, and to The Digital Dilemma: Strategic Issues in Archiving and Accessing Digital Motion Picture Materials, funded by the Academy of Motion Picture Arts and Sciences. Likewise, discussions of risk management and accountability have moved from the cathedrals of Big Four Consulting firms to the everyday vocabulary of archivists and records managers. While one can argue that responsibilities related to sustainability, risk management, and accountability have always been among the key archival duties, the language used to drive discussions of these concepts has become increasingly market driven in the past decade.
+In this plenary talk, former economist Lorraine Eakin-Richards will highlight the impacts that these “corporate and social epistemologies” have had upon archives research and upon the still-labyrinthine relationship between archives and several of its allied disciplines. She will bring to bear her practical work experience in enterprise risk management and systems implementation with one of the above mentioned Big Four firms, as well as her experience engaged in sustainability-related research and practice with the Blue Ribbon Task Force and the Dryad scientific data repository. Using her current research on cloud computing as a nascent architecture for sustainable preservation in the public sector, she will discuss the reciprocal relationship between archives and records management, economics, computer science, and ethics in an increasingly distributed computing environment. She will also posit that within the new collaborative environment in which traditional archival theory and the new technologies and disciplines meet, inter- and multi-disciplinary research between these various areas must progressively evolve into an even-wider intellectual multi-disciplinarity, one which is increasingly cross national and multicultural.</t>
+  </si>
+  <si>
+    <t>Scientific data, like other kinds of records, are the by-products of work that can function as evidence to validate findings and make claims. An important way in
+which archives ensure that records can serve as evidence is by documenting the link between the records and their context of creation. Science also depends
+on the connection that scientists can make between data and the circumstances under which the data were collected. This has traditionally been
+accomplished through journal articles.
+As science becomes more data intensive and means of easily sharing data become more accessible, there is increasing emphasis on building shared
+repositories of scientific data. And yet, it can be difficult to provide an appropriate level of contextual information for the data in such repositories. In this paper, based on a case study of a Materials Science lab group in a major research university, we examine how the daily data practices of scientists might be an aid or impediment to others using their data as evidence in their own studies.</t>
+  </si>
+  <si>
+    <t>This presentation examines the evolution of digital archives in archaeology. As archaeologists continue to utilize new methods for gathering data (e.g. GPS, remote sensing, 3D laser scanning) the nature of the archival record for these researchers is changing. Where archival records in the past were largely considered by archaeologists as proprietary, emerging collaborative research methodologies are challenging this notion. Web-based collaborative research projects and developing archaeological cyberinfrastructures require the sharing of raw data, field notes, journals, maps and other records. This poses new challenges for researchers and archivists, including the issues of records standardization, records ownership and accessibility, and metadata and database standards. Using archaeological fieldwork as a lens, the presentation will address the following questions: 1) What is the role of archivists and information professionals in the emerging world of Web-based collaborative scholarship, as researchers are struggling to bridge the gap between the analog and digital records? 2) What are the barriers to increasing collaboration among researchers and how do archival records play a role in determining the success of such projects 3) How will e-research continue to shape the nature of archival records?</t>
+  </si>
+  <si>
+    <t>Archivists face a number of challenges related to providing public access to digital materials. Digital works may comprise part or all of a given collection. Archivists may seek to digitize material for preservation or for public dissemination. Archivists must make many decisions based on institutional policy, copyright law, donor agreements, and other factors.I discuss my experiences with legal and policy concerns in archives and other cultural institutions, including my work with the American Library Association's Copyright Scholar Network. I also discuss potential research methodologies involved in examining copyright issues in archives, including some ethnography-based methods I am currently examining.</t>
+  </si>
+  <si>
+    <t>In this presentation I will lay out a proposed study and research direction. The study will look at how scientists create and share information, in particular when dealing with digital materials and information technology. In this study, scientists are defined as researchers working in the field of natural science. My research will address the following questions: 1) How does managing digital information affect the everyday workflow of scientists? 2) When completing a project, how do scientists consider the reuse of the materials and artifacts from the project? 3) What problems do scientists encounter when sharing and reusing data and materials fromtheir own past projects? These questions involve issues beyond the typical concerns of creating and maintaining metadata and will also encompass file formats, appraisal and archival habits, and collaborative information seeking behavior. It will also involve how all of these points are affected by the integration of information tools and technology.Other research areas I may cover during this study include information behavior, specifically motivation in relation to information technology. This research will test the assumption that many scientific institutions rely in some part on legacy technology.Researching this topic will determine to what extent this belief holds true. Research in this study would address the behaviors which tie these scientists to dated technology and investigate what prevents them from moving on to modern systems.</t>
+  </si>
+  <si>
+    <t>This paper builds on a small but intriguing social science research literature on interviewing peers and experts. It draws on findings from the author's qualitative investigation of the use of digitized photographic archives by domain experts from a range of occupational strata. The paper analyzes selected exchanges between interviewer and interview participant, with the goal of juxtaposing the roles played by specific terminology and jargon from archival theory and the practice of photography. The paper explores how archival knowledge may be elicited from domain experts through negotiation on the transparency of the interview process itself. The paper concludes with commentary on the particular benefits that accrue to the development of understanding the use of archives from research with populations of experts.</t>
+  </si>
+  <si>
+    <t>Student work is a major product of the academic machine, but it receives short shrift in most institutional archives; even the personal papers of alumni who went on to become famous tend to be light on work done during their school years. The work of student filmmakers is a resource that is often neglected, despite being particularly rich in several respects. This paper will briefly discuss the results of a recent (Spring, 2010) survey of film schools and other colleges nationwide and summarize their practices in retaining, preserving, and providing access to student film productions. Case studies of a few of these archives will provide a jumping-off point for discussing how, when, and why schools create collections of student films, and the implications of their work for archivists who manage audiovisual materials in other institutional contexts.</t>
+  </si>
+  <si>
+    <t>The presentation will examine how the Hamilton Family fonds, and other spirit photography collections have dealt with in archival settings. At the core of the Hamilton fonds are about 700 spirit photographs which will be compared with other fonds/collections of similar photographs in North America and Western Europe. Over the past 30 years the actions of archivists have contributed to how the Hamilton family fonds is used and perceived as much as T.G. Hamiton's camera's did. In the case of the Hamilton photographs the "presence" of the fonds has led to major decisions concerning other fonds or even the direction of archives acquisition policies in general. I will attempt to determine how other archives which hold these types of photographs have approached these kinds of fonds/collections, and what we can say about the archiving of the paranormal in general.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This presentation will report on the Koorie Archiving System (KAS), an outcome of an Australian Research Council funded project, Trust and Technology: Building Archival Systems for Oral Memory. KAS uses digital technologies and ideas about archives that derive from both postmodern and Indigenous traditions to move beyond conventional configurations of archives; traditional notions of ownership of and rights in government records based on the construct of a singular records creator; and the boundaries we have drawn between personal records and public records, community and government records. It moves towards an archival multiverse in that it aims to provide an archival space where control is shared and all parties involved can negotiate a meta-framework in which multiple perspectives, provenances and rights in records co-exist. The presentation will provide an overview of how the Koorie Archiving System uses web-based technologies to create a shared space for the Public Record Office of Victoria, the Koorie Heritage Trust Inc, the National Archives of Australia, and Koorie communities and individuals to work collaboratively as equal partners to create an archive that operates in both public and personal spacetime, an archive that respects Koorie community requirements relating to Koorie rights in government archival records, and supports Koorie community control of who can use community and personal records and stories according to their access protocols. It will also discuss how KAS provides a demonstrator of a socially inclusive approach to archiving, showing how government and alternate views can be presented in a harmonious environment, while demonstrating how community organisations can integrate government records into their own knowledge and records systems. KAS involves a partnership between Monash University, the Public Record Office Victoria, the Koorie Heritage Trust Inc., the Koorie Records Taskforce, the Indigenous Special Interest Group of the Australian Society of Archivists, the National Archives of Australia and Koorie communities in Victoria (Koorie is a term used to refer to the Indigenous peoples of South Eastern Australia). </t>
+  </si>
+  <si>
+    <t>Archives often regard themselves as memory institutions. However, the archives' role to serve for collective memory has not yet been actively studied. This study looks at how archives can encapsulate collective memory of a certain historical event using social media technologies which facilitate user collaboration and information sharing. In this research project, a virtual archives to document collective memory of the No Gun Ri massacre is being created. The No Gun Ri massacre was a mass killing of more than 400 Korean refugees by American soldiers during the Korean War. The incident began to be researched based on accumulated archives in the survivors' community. The process of building knowledge was notable due to the vigorous controversies and discussions, which have become a part of larger collective memory. Using social media technologies, this archives will provide a space not only to collect and digitize materials but also to provide grounding for the development of collective memory from user contributed contents in the collection.</t>
+  </si>
+  <si>
+    <t>This year's workshop builds on and extends the key concepts –diversity, pluralization, cultural sensitivity, community — discussed in part 1. This workshop will review arguments for developing more inclusive approaches to teaching Archival Studies. It will identify curricular and pedagogical strategies for teaching archival curricula in culturally sensitive and culturally relevant ways. It will also discuss the conceptualization of new courses and pedagogical methods specifically designed to meet the needs of diverse communities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today, libraries, archives, museums, and other cultural heritage institutions are responsible for preserving information in digital form that has potential to serve as valuable cultural records. If persistent access to such material is lost, society at-large stands much to lose. One powerful way of ensuring persistent access to digital material of enduring value is by creating preservation metadata for digital objects (Conway, 1996; Hedstrom, 2003; Lavoie and Gartner, 2005). In 2006, the PREservation Metadata Implementation Strategies (PREMIS) Data Dictionary was awarded the Society of American Archivists’ Preservation Publication Award for being “intellectually sophisticated, groundbreaking, truly collaborative and international in scope and of great significance for the archival preservation community” because of its response to “an emerging need shared by archives and cultural heritage institutions implementing digital archiving capacity and infrastructure” (Society of American Archivists, 2006). Despite its significance, many institutions have not adopted the PREMIS Data Dictionary (Alemneh, 2008). In order to mitigate or remove completely barriers to the adoption of PREMIS, the researcher argues that attention should now be focused on the implementation process. In this qualitative case study analysis, the researcher conducted in-person interviews, field observations, and also collected prototype examples at the Florida Center for Library Automation’s (FCLA) Florida Digital Archive (FDA). Relying on Diffusion ofInnovations and Management Science &amp; Information Systems literature, coupled with analysis of the data collected, an Iterative Model for the Adaptation Stage of the PREMIS Implementation Process is proposed. In conclusion, this case study suggests that seemingly innocuous decisions by developers have real implications, not only for how a preservation model is enacted, but more importantly, for how preservation is actually constructed in digital repositories. A deeper understanding of the PREMIS implementation process will advance the goals of the digital preservation community to implement PREMIS widely in organizations that preserve digital content. Because preservation metadata is essential to ensuring preservation and access to digital material over the long term, society as a whole will benefit if PREMIS implementation can be broadly accomplished. </t>
+  </si>
+  <si>
+    <t>The Australian Women’s Register is a specialist central access point to information about Australian women and their achievements, along with the multifarious resources in which aspects of their lives are documented. It provides a gateway to archival and published material  relating to Australian women held in cultural institutions as well as in private hands. This presentation will provide an overview of the EAC harvesting facilities developed to enable metadata from the Register to become part of the National Library of Australia’s Trove discovery service. It will focus on how EAC has been implemented and the partnership between librarians, archivists and historians that made it happen. It will discuss how this work to foster the development of complicit systems aims to increase the productivity of those associated with the creation, management and use of source material for historical research, and allow a rich multiplicity and variety of voices to contribute their knowledge into resource discovery systems.</t>
+  </si>
+  <si>
+    <t>Digital forensics is the branch of forensic science that seeks to capture, analyze, explain, and preserve legal evidence found in a digital artifact or system. A fast growing trend in archival studies is the exploration of digital forensic techniques as a means of informing archival thought and improving digital preservation practices. In this presentation, I will explore the current literature, identify converging communities of practice, and consider the implications of digital forensics for archivists and digital preservation.</t>
+  </si>
+  <si>
+    <t>This study is mainly interested in how the international standard, the ISAD(G), impacts local practice in the non-Western country and how the Western archival paradigm embedded in the ISAD(G) standard has been adopted within non-Western societies. While several studies have been conducted on the implementation of the ISAD(G) in Western countries, the Asian national and local experience of the standard remains relatively unexplored. Here, the study conducted a case study in Korean. It explored the use and understanding of the standard in Korean archival settings and analyzed some issues arising during the development of the system based on the standard.</t>
+  </si>
+  <si>
+    <t>[No abstract in program.]</t>
+  </si>
+  <si>
+    <t>The Documentation Strategy (DS) was developed in the 1980s as a methodology intended to assure the documentation of an ongoing issue, activity, or geographic area through the design, promotion, and implementation of a mechanism between records creators, administrators, and users. Yet, while the DS fosters collaborative work, the role of archival educators in this process has not been thoroughly discussed in the archival literature. Although educators may not be able to overtly guide the selection and retention of collections, they can raise awareness and establish networks to bring together students, practitioners, and other community members to address the challenges faced with archival collections. This paper will discuss the pros and cons encountered when appropriating the DS in the classroom by presenting a case that aimed to begin to document the state of Pittsburgh’s motion picture film collections.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social theory is the use of theoretical frameworks to interpret social structures and phenomena. It has become more important to the archives discipline simply because the nature of records, their creation, and circumstances of their existence are increasingly complex. Social theory has impacted graduate archives education and the broader profession in several ways. It has inspired the notion that archivists must be knowledgeable beyond the skills and tasks that comprise the day-to-day operations of archives repositories. Individual and institutional actions are influenced by larger social forces, and as such a theoretical comprehension of these forces is necessary to examine how and why things are done over time.Social theory, whether grounded in existing archival theory or borrowed from outside disciplines, is necessary to provide archives professionals a keener sense of what is happening around them. The presentation will discuss the incorporation of social theory into archives education and what this has meant for the broader archives profession. Based on a review of relevant archives education literature and a survey of archives educators, the author suggests that social theory has had a significant but subtle impact on archives education but will become increasingly necessary for the profession to deal with evolving social, political, and technological realities.
+</t>
+  </si>
+  <si>
+    <t>Although the task of establishing and maintaining relationships with external organizations for purposes of providing field experience or internships for masters students may fall to junior faculty, it can serve as an opportunity for collaborative research. While the host site may see the field experience as an inexpensive means to achieve a particular institutional goal, for which they lack the internal resources, or to supplement the ongoing work of providing access to collections, you and your students could take advantage of this invitation to explore the intellectual structure of the institution, especially the creation and organization of its records.
+Looking beyond the usual suspects such as your region’s historical societies and museums, opportunities for a fruitful collaborative experience abound, including social clubs, performing arts organizations and non-academic departments within a university. This paper reports on several recent collaborations with a willing experimental subject – the host site itself.</t>
+  </si>
+  <si>
+    <t>Focusing on the pedagogical issues surrounding the integration of different technologies into the archival/preservation classroom, this workshop presents these issues from the three different perspectives of the presenters, each of whom is currently engaged in disparate research addressing these digital concerns. After an overview of each presenter’s approach, they will then engage the audience in designing activities, learning objectives, and evaluation approaches related to introducing archival/preservation technologies into the curriculum through a series of group exercises and scenarios in a digital environment.
+Goals of this workshop are:
+-Understanding different approaches to integrating archival technologies.
+-Recognizing alternate ways of teaching digital material in digital environment
+-Helping participants avoid teaching to the tool
+-Identifying appropriate learning objectives for technological activities
+-Designing appropriate evaluations</t>
+  </si>
+  <si>
+    <t>My research investigates the maintaining behavior of personal information, by examining the influence of sense of self on conscious decisions to maintaining digital objects n personal computers. An individual’s sense of self may motivate how or why individuals maintain one digital object over another digital object. Sense of self may also be related to an individual’s concept of the “importance” of an item.
+Information about individual’s maintaining behavior can be of use to developers of personal information management tools and archivists who practice pre-custodial intervention in association with personal papers collections. To investigate this area, I have developed a two-part study involving the use of q methodology, a sorting activity and qualitative interviews. In my presentation I will discuss why I chose these methods to conduct my research and how previous research in social psychology, compulsive hoarding and the study of possession has influenced the design of my study.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a direct relationship between quality of life and our ability to maintain a coherent sense of self. In light of evidence that memory loss, particularly in the aged, will become more commonplace, the issues raised are not only for the potential sufferers but also to the family, friends and extended carers who will be responsible for their wellbeing.
+Findings suggest that there are a number of common themes emerging across multidisciplinary research particularly in regard to the nature of memory, and the triggers which constitute the record. The convergence of these findings creates the opportunity for the archival profession to contribute therapeutically in the area of health and aging by applying contemporary and evolving theories to the creation of
+the personal archive.
+The Personal Archive is an electronic register of objects, stories and images which represents autobiographical memories. Each entry in the archive is annotated with important information that provides context for the documented people, events and places. </t>
+  </si>
+  <si>
+    <t>This paper examines the contribution of the archival field to the literature of recordkeeping behavior. The study of recordkeeping, the process of individuals and institutions creating, managing, and using records to support their activities, is a rich and diverse field of research. Studies have examined recordkeeping practices in a wide variety of industries, particularly healthcare, law enforcement, and other fields that are characterized by records-intensive work. Research has come from a variety of disciplines, including anthropology, history, organizational behavior, human-computer interaction, and archival science. This paper explores patterns and trends in this area of study, focusing in particular on the research produced by archival educators and practitioners.</t>
+  </si>
+  <si>
+    <t>The proposed presentation will examine Electronic Health Record (EHR) systems through both an empirical study of the implementation of an EHR system at a community health clinic and a conceptual analysis that interrogates claims made for and about EHRs. This conceptual analysis brings together three conventionally separate ways of understanding electronic records: systems design, sociotechnical analysis and archival science, in hopes of arriving at a vision of EHR systems that takes into account the questions of justice and equity in addition to the dominant mandate for technical efficiency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building off the preliminary research I presented at AERI 2009, this paper draws on the ongoing human rights tribunal in Cambodia to argue that archives play a significant role in fostering three elements essential to Cambodia’s recovery: accountability, truth, and memory. First, archives have an enduring power to hold the Khmer Rouge regime accountable because they were the catalyst for an ongoing international human rights tribunal, as shown by the relentless activism of the archive’s director, international efforts to preserve Khmer Rouge records, and the correlation between indictments and documentary evidence. Secondly, this paper posits that archives make a significant contribution to the establishment of truth because they have epistemological validity over the testimony of survivors, as seen repeatedly throughout the tribunal. Finally, this paper argues that the archive is succeeding in constructing memory of the Khmer Rouge era because it is forcing Cambodia to deal with its uncomfortable past by giving voice to survivors, creating textbooks, and conducting outreach. This paper is rooted in the field of archival studies within the discipline of library and information science, but draws on history, Cambodian studies, and legal studies. Employing transcripts of the ongoing tribunal, NGO reports, and newsletters as primary sources, the paper argues that, while archives have been successful in holding the Khmer Rouge accountable, establishing truth, and creating memory, only a tribunal can administer justice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All records are potentially valuable sources of community knowledge, such as the land, the people, oral knowledge and memory, archaeology, paper records, multi-media, digital collections, community and organisational documents, photographs, and visual and performance art. Collectively they are a community archive. But how does the community hold onto that knowledge and make it accessible? What are the frameworks, processes and protocols? What relationships exist between a community archive and other archival collections and institutions?
+This presentation will be on the development over the past year of the research project Holding Gunditjmara Knowledge: Community and records working together. This is a partnership project of the Gunditj Mirring Traditional Owners Aboriginal Corporation (RNTBC) that represents Gunditjmara traditional owners (as identified in the Gunditjmara Native Title Claim Consent Determination 2007) and Monash University. This research plans to answer these questions and others in relation to Gunditjmara knowledge of the Lake Condah area. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A major contribution of postmodern approaches has been the call to address the socio-political and cultural implications of archival work. These articulations gestured toward an iteration of archival discourse that challenged the long-held assumptions of the field. However, much of this archival work that focuses on issues stemming from cultural difference, marginalization, and oppression has tended to focus on filling the gaps of the documentary record, rather than transforming the discursive and ideological structures themselves. This presentation argues that many of the admonitions offered by postmodern archival scholars are gestures toward a yet-to be-articulated archival discourse of postcoloniality. Secondly, this presentation will outline the particular features of a postcolonial Archival Studies discourse in order to identify a “postcolonial turn” in Archival Studies. To this end, I will attempt to apply postcolonial frameworks for interrogating and critiquing the liberalist rhetoric of “multiculturalism” and “diversity” as it surfaces in archival discourse.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper explores contemporary artists’ engagement with archives as thematic/aesthetic concepts deployed to address questions about memory’s relationship to discourse and as a material placeholder for “personal” and “official” histories. It examines the premise of a recent multimedia and multidiscipline exhibition, “Archive Fever: Uses of the Document in Contemporary Art,” organized by the International Center of Photography in New York City in 2008. Inspired by Derrida’s Archive Fever, the exhibition explores the archive as a mode of creative production in the works of many prominent contemporary artists, including Christian Boltanski, Felix Gonzalez-Torres, Sherrie Levin and Glenn Ligon. This paper also discusses the theme of documenting and constructing loss and memory in Cai Guo-Qiang’s current exhibit jointly organized by the Fabric Museum and Workshop and Philadelphia Museum of Art, as well as the ambitious “Palace of Projects” by Ilya and Emilia Kabakov, described by critics as “an archive of utopian ideas.” The survey of this diverse collection of contemporary art addresses more recent theoretical developments in archival studies which deal with issues of evidence, representation and affect, as well as with core archival values and methodologies as understood by archival scholars and archivists working with both physical and digital objects, e.g. records continuum theory, LOCKSS (Lots of Copies Keep Stuff Safe), and “More Product, Less Process.” How do these artists appropriate archival concepts? In what ways do their works offer a critique of the archival process/thinking that exists in both personal and institutional collections? </t>
+  </si>
+  <si>
+    <t>My talk at AERI is based on the research I am doing for a book (Everyday Literacy: The Role and Function of Writing and Recording as Viewed through the 4-H Movement) that is looking into approaches to the study of everyday writing and recording. Part of this work involves analyzing a diverse body of literature from outside the archival realm. In marrying understandings from archival science with that of sociology, anthropology, history, digital and print culture, education, gender and ethnic studies, history of science, computer supported cooperative work, rhetoric, composition, and literacy my goal is to be at the forefront of articulating and facilitating the nascent interdisciplinary field of document studies. In my talk a particular emphasis will be placed on how the concept of everyday documents and the notion of document work is conceptualized and theorized in a number of communities with a vested interest in documents and records, Workplace Studies, Computer Supported Cooperative Work, and Genre Studies.</t>
+  </si>
+  <si>
+    <t>Archivists have traditionally had a mandate to collect, organize and classify records, often late in the process after they have been delivered to the archives. This is reflected in organizational structures, where the archivists have rarely had a strategic management role although in Sweden there is clear and universally known legislation defining archives and the archival responsibilities of public organizations. With the transition from paper-based to electronic records, information can now be used strategically, for example through e-services. The challenge for the profession is to raise awareness that we are active strategists and information managers. My research motive is to establish if and how this change affects the records and archives professionals and the archive as a function. I intend to conduct a quantitative study on municipalities regarding the strategic planning of digital archives with a deeper qualitative focus on organizations that have undertaken organizational change when implementing electronic recordkeeping systems.</t>
+  </si>
+  <si>
+    <t>Museums worldwide are wrestling with questions about the representation of indigenous peoples in museum exhibits. Who decides how a culture is portrayed? Does context matter? What happens when members of the community speak out against museum exhibits? U-M Exhibit Museum of Natural History director Amy Harris will discuss these questions in telling the story of reaching the decision to remove 14 immensely popular — and largely accurate — miniature dioramas of Native American cultures from her museum in a process that unfolded over nearly 10 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“L’ archivistique est-elle une science ou un art?” was the question put by Bruno Delmas (France) at the conference “Archival science on the threshold of the year 2000” held in 1990 at the University of Macerata (Italy), and he repeated the question in the first issue of the journal Archival Science, published in 2001.[1] However, while his original question can be translated as I have done in the title of this presentation, Delmas used in the Archival Science article a different term, asking “Is archiving a science or an art?”. The difference is not just a slip of the pen while translating: the contrast reflects the distinction between archivage (archiving) and archivistique (archivistics or archival science) which through time and in different places are being interpreted differently. I propose to discuss this theme by exploring research in archiving and archivistics within the European context.
+I further argue that such research has to be interdisciplinary. In contexts which are always changing in time-space, the record is continuously mediated and activated. To understand that agency, archivistics needs to ally with and be challenged by other disciplines who study human perception, communication, and behavior. Scholars of archivistics are learning (or relearning) from anthropologists, sociologists, psychologists, philosophers, cultural and literary theorists: to look up from the record and through the record, looking beyond – and questioning - its boundaries, in new perspectives seeing (to use Tom Nesmith’s magnificent expression) with the archive, trying to read its tacit narratives of power and knowledge.
+After (or perhaps entwined with) my presentation I will engage the other plenary speakers Margaret Hedstrom, Cal Lee, and Lorraine Eakin-Richards and the audience in a discussion of the topic of archival research and interdisciplinarity.
+[1] Bruno Delmas, ‘Bilan et perspective de l’archivistique française au seuil du troisième millénaire’, in: Oddo Bucci (ed.), Archival science on the threshold of the year 2000 (University of Macerata, Macerata 1992) 81-109; Bruno Delmas, ‘Archival Science facing the Information Society’, Archival Science 1 (2001) 25-37. </t>
+  </si>
+  <si>
+    <t>Archival Science and Domain Knowledge: An Interdisciplinary Epistemology</t>
+  </si>
+  <si>
+    <t>How to Win Collaborators and Influence Disciplines: Lessons for the Archival Profession</t>
+  </si>
+  <si>
+    <t>Seeing the world through different eyes: Conducting Archival User Studies</t>
+  </si>
+  <si>
+    <t>Into the Labyrinth: Reciprocity between Archival Research and Practice and That of Closely Allied Disciplines</t>
+  </si>
+  <si>
+    <t>Data Practices in a Materials Science Lab</t>
+  </si>
+  <si>
+    <t>Archaeology and Digital Archive</t>
+  </si>
+  <si>
+    <t>Copyright Challenges with Public Access to Digital Materials in Cultural Institutions</t>
+  </si>
+  <si>
+    <t>A proposed study of natural scientists in their natural habitats: Information behavior and workflow habits of
+natural scientists</t>
+  </si>
+  <si>
+    <t>Interviewing Expert Users of Digitized Photographs</t>
+  </si>
+  <si>
+    <t>On Janus and Juvenilia: Preserving student films in institutional archives.</t>
+  </si>
+  <si>
+    <t>Archiving of the Paranormal: The Case of Spirit Photography</t>
+  </si>
+  <si>
+    <t>Zines, Archiving materiality; everyday zine practices and the archive</t>
+  </si>
+  <si>
+    <t>[No institution in program.]</t>
+  </si>
+  <si>
+    <t>[No presenter in program.]</t>
+  </si>
+  <si>
+    <t>Louisiana State University</t>
+  </si>
+  <si>
+    <t>Experimenting with the Documentation Strategy in the Classroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Theory in American Archives Education: Perspectives from Archives Educators
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seeing Research Potential in Collaborative Projects
+</t>
+  </si>
+  <si>
+    <t>Khmer Rouge Archives: Accountability, Truth, and Memory in Cambodia</t>
+  </si>
+  <si>
+    <t>Holding Gunditjmara Knowledge: Community and Records Working Together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://aeri.website/aeri-2010-conference-schedule/
+https://web.archive.org/web/20100926070850/http://aeri2010.wetpaint.com:80/page/Archival+Education 
+This is an archived version of the original AERI 2010 Wiki, captured Sep 26, 2010.
+</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/
+https://web.archive.org/web/20100926070850/http://aeri2010.wetpaint.com:80/page/Archival+Education 
+This is an archived version of the original AERI 2010 Wiki, captured Sep 26, 2010.</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/
+https://web.archive.org/web/20100926065024/http://aeri2010.wetpaint.com:80/page/Renegotiating+Principles+and+Practices
+Page was captured and archived on Wayback Machine Sep 26, 2010.</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/
+https://web.archive.org/web/20100926065024/http://aeri2010.wetpaint.com:80/page/Renegotiating+Principles+and+Practices
+Page was captured and archived on Wayback Machine Sep 26, 2010</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/
+https://web.archive.org/web/20100926062300/http://aeri2010.wetpaint.com:80/page/Communities+of+records
+Page captured and archived on Sep 26, 2010</t>
+  </si>
+  <si>
+    <t>Marginal Evidence: Towards an Articulation of Postcoloniality in Archival Theory</t>
+  </si>
+  <si>
+    <t>Archival Practices/Concepts in Contemporary Art</t>
+  </si>
+  <si>
+    <t>Records Across the Disciplines: In Search of a Document Centered Research Community</t>
+  </si>
+  <si>
+    <t>Museums Working with Communities: The Native American Dioramas</t>
+  </si>
+  <si>
+    <t>Archivistics: science or art?</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/;https://web.archive.org/web/20100818065147/http://aeri2010.wetpaint.com:80/page/Plenaries
+Archived website captured on Aug 18, 2010, accessed via Wayback Machine</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://aeri.gseis.ucla.edu/Archiving%20the%20Performance%20_%20Performing%20the%20Archive%20-%20AERI%202010.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://aeri.gseis.ucla.edu/Conducting%20Information%20Retrieval%20%28IR%29%20Research%20in%20Traditional%20and%20Digital%20Archives%20-%20AERI%202010.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://aeri.gseis.ucla.edu/Tenure%20Package%20%28Research,%20Service,%20and%20Teaching%20Statements%29%20-%20AERI%202010.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://aeri.gseis.ucla.edu/Collective%20Memory%20Research%20Methods%20-%20AERI%202010.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://aeri.gseis.ucla.edu/Seeing%20the%20world%20through%20different%20eyes_%20Conducting%20Archival%20User%20Studies%20-%20AERI%202010.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://aeri.gseis.ucla.edu/Dissertation%20Proposal%20Seminar%20-%20AERI%202010.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://aeri.gseis.ucla.edu/Granting%20Agencies%20-%20AERI%202010.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://aeri.gseis.ucla.edu/Archival%20Principles%20and%20Practices%20Re-Examined%20-%20AERI%202010.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://aeri.gseis.ucla.edu/Challenges_Problems%20in%20Use,%20Re-Use,%20and%20Sharing%20-%20AERI%202010.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://aeri.gseis.ucla.edu/Audiovisual%20Materiality%20and%20the%20Archival%20World%20-%20AERI%202010.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://aeri.gseis.ucla.edu/Digital%20Cultural%20Communities%20-%20AERI%202010.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://aeri.gseis.ucla.edu/Distance%20Education%20-%20AERI%202010.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://aeri.gseis.ucla.edu/Developing%20a%20Culturally%20Sensitive%20Archival%20Curriculum%20Part%202%20-%20AERI%202010.pdf</t>
+  </si>
+  <si>
+    <t>https://aeri.gseis.ucla.edu/Metadata,%20Systems,%20Implementation,%20and%20Standardization%20-%20AERI%202010.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://aeri.gseis.ucla.edu/Integrating%20Technology%20into%20the%20Classroom%20-%20AERI%202010.pdf</t>
+  </si>
+  <si>
+    <t>https://aeri.gseis.ucla.edu/Recordkeeping%20Realities%20-%20AERI%202010.pdf</t>
+  </si>
+  <si>
+    <t>https://aeri.gseis.ucla.edu/Issues%20Regarding%20Records%20Management%20in%20Enterprises%20and%20Organizations%20in%20the%20Public%20Sector%20-%20AERI%202010.pdf</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://aeri.gseis.ucla.edu/Museums%20Working%20with%20Communities_%20The%20Native%20American%20Dioramas%20-%20AERI%202010.pdf</t>
+  </si>
+  <si>
+    <t>University of California Los Angeles; University of California Los Angeles</t>
+  </si>
+  <si>
+    <t>All tenure-track Junior Faculty at AERI are invited to participate in a workshop on "Creating the Tenure Package". In order to participate everyone must submit the following materials by June 11th, 2010 to Helen Tibbo: tibbo at email dot unc dot edu
+1. Outlines/drafts of teaching, service, and research statements for either a 3rd year review or tenure 2. CVs 3. Your institution's guidelines for tenure and promotion The first part of the workshop will be spent discussing the tenure process in general, dissecting institutional guidelines, and the role of the 3rd year review.
+Participants will then review and provide feedback to each other on the teaching, service, and research statements submitted. The idea is to learn from one another and the convener who has reviewed multiple tenure packages. Seeing other peoples’ materials will help you to contextualize your own in the vast sea of possibilities. The workshop will end with a review of CVs and the VERY IMPORTANT process of identifying your external letter writers.</t>
+  </si>
+  <si>
+    <t>University of Michigan; University of Michigan; Rhode Island State Archives</t>
   </si>
   <si>
     <t>Ciaran Trace will be convening a workshop on the topic of the "Dissertation Proposal" Tuesday, June 22, from 10:30 AM to 3:00 PM.
@@ -655,53 +864,35 @@
 If you intend to take part in this workshop please let Ciaran know cbtrace at ischool dot utexas dot edu as soon as possible</t>
   </si>
   <si>
-    <t>Support for research in issues related to archives is provided by a number of private foundations and federal agencies. Representatives of three of the nation’s leading funders of archival activities (National Historical Publications and Records Commission, the National Endowment for the Humanities, and the Institute of Museum and Library Services) will briefly describe their agencies’ current funding priorities and provide an overview of relevant grant programs. They will then field questions concerning the grant
-application and review processes.</t>
-  </si>
-  <si>
-    <t>The detection and restoration of the “original order” of the archival fonds by the process of physical arrangement has been an important archival task. Digital records’ affordances, however, mean that in active use they may lend themselves to multiple virtual orderings, none of them representing an actual physical ordering on any medium. I will discuss experiments in archiving digital records capturing a formal “order as received” including the overt and forensically available orderings of digital files on legacy media prepared by the creator/donor. The discussion includes the archiving process and the documentation of the set of derivative orderings available through the original operating system in which the medium was created. This practice is designed to capture a specific “raw” state of the fonds, to provide to the potential user a representation of an otherwise invisible stage in archival processing, and to create a documented basis for other derivative orderings.</t>
+    <t>Institute for Museum and Library Services; National Historical Publications and Records Commission; National Endowment for the Humanities</t>
+  </si>
+  <si>
+    <t>Support for research in issues related to archives is provided by a number of private foundations and federal agencies. Representatives of three of the nation’s leading funders of archival activities (National Historical Publications and Records Commission, the National Endowment for the Humanities, and the Institute of Museum and Library Services) will briefly describe their agencies’ current funding priorities and provide an overview of relevant grant programs. They will then field questions concerning the grant application and review processes.</t>
   </si>
   <si>
     <t>Since the 1980s a number of archival researchers have directly or implicitly promoted the user study as an essential appraisal tool for collecting information on users and use. However, user studies in appraisal practice have been mostly approached conceptually from the archival appraisal perspective and practically from the user study perspective. There has been little research bridging the gap, which has complicated and obscured the actual relationship between appraisal practice and user studies.
-This study is the first to explore empirically the relationship between appraisal practice and user studies. It employs an online survey and interviews with U.S. state archivists and records managers who conduct appraisal practice. The results will show their current utilization of user studies in appraisal practice by U.S. state archivists and records managers and their attitudes toward user studies’ feasibility and
-value. This study has been selected to receive the LRRT Jesse H. Shera Award for the Support of Dissertation Research at the 2010 ALA annual conference.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This dissertation research is designed to investigate whether the archival principle of original order, originating from the nineteenth century European paper-based records tradition, continues to be the guiding principle in the organization and representation of digital archival collections in the twenty-first century. The investigation focuses on the three aspects of original order identified from the literature - its definitions, purposes, and representations, as reflected in the three key research questions: 1) What defines original order in digital environments? 2) What value does original order contribute to digital archives? 3) What role does original order play in digital archival representation? The content of the presentation will cover construction of conceptual framework, development of research questions, research design and methodology, methods of data collecting, coding and analysis, and preliminary findings. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recent developments in web technologies and social software parallel a cultural shift which challenges the authority of the professional. Despite much argument between advocates of the 'crowd' and the 'expert', there is little understanding of the potential impact of user-generated content upon archival theory and practice.This presentation will outline the starting points for my research:  · To examine the utility, usage and broader value of user participation projects in archives, and to identify those factors which lead to their success or otherwise. Are such initiatives scalable to small or independent archives as well as larger, national institutions?   · To investigate the impact of collaborative methodologies on professionalism and professional practice, and to consider how user contributions might be incorporated within ISAD(G)    · To examine the extent to which these collaborative developments are new phenomena, or whether they are similar to previous 'analogue' attempts to engage with wider communities </t>
-  </si>
-  <si>
-    <t>Almost a decade ago, Brian Brothman published “The Past that Archives Keep: Memory, History, and the Preservation of Archival Records.” As a prelude to this piece, he quoted a passage from Octavio Paz’s The Labyrinth of Solitude, in which Paz explored notions of identity and the manner by which Mexico had divided itself into an “original,” indigenous culture and the “newer,” Spanish culture, thereby forcing itself into a fragmented solitude, living in essential self-denial. Walking a similar path, Brothman explored the ways that new technologies and theoretical debates in the archival field had created gaps in archival research that were undermining the influence of the archival mission itself, leaving the profession at risk of dissolving into its own fragmented solitude. He ended by saying, “Archives need fresh arguments grounded in new corporate and social epistemologies. Failure to find them may well mean a repeated history of indifference to and limited funding of the archival mission, and by-passing of archivists.”
-We now exist in a space in which these “new corporate and social epistemologies” have become increasingly relevant to archives and archivists. Funding trends reflect the growing interest in how to ensure that digital preservation efforts can be financially sustained and efficiently managed. Financial support for research on the economic sustainability of digital preservation has led, for example, to the reports by the Blue Ribbon Task Force on the Sustainability of Digital Preservation and Access, funded by the National Science Foundation, and to The Digital Dilemma: Strategic Issues in Archiving and Accessing Digital Motion Picture Materials, funded by the Academy of Motion Picture Arts and Sciences. Likewise, discussions of risk management and accountability have moved from the cathedrals of Big Four Consulting firms to the everyday vocabulary of archivists and records managers. While one can argue that responsibilities related to sustainability, risk management, and accountability have always been among the key archival duties, the language used to drive discussions of these concepts has become increasingly market driven in the past decade.
-In this plenary talk, former economist Lorraine Eakin-Richards will highlight the impacts that these “corporate and social epistemologies” have had upon archives research and upon the still-labyrinthine relationship between archives and several of its allied disciplines. She will bring to bear her practical work experience in enterprise risk management and systems implementation with one of the above mentioned Big Four firms, as well as her experience engaged in sustainability-related research and practice with the Blue Ribbon Task Force and the Dryad scientific data repository. Using her current research on cloud computing as a nascent architecture for sustainable preservation in the public sector, she will discuss the reciprocal relationship between archives and records management, economics, computer science, and ethics in an increasingly distributed computing environment. She will also posit that within the new collaborative environment in which traditional archival theory and the new technologies and disciplines meet, inter- and multi-disciplinary research between these various areas must progressively evolve into an even-wider intellectual multi-disciplinarity, one which is increasingly cross national and multicultural.</t>
-  </si>
-  <si>
-    <t>Scientific data, like other kinds of records, are the by-products of work that can function as evidence to validate findings and make claims. An important way in
-which archives ensure that records can serve as evidence is by documenting the link between the records and their context of creation. Science also depends
-on the connection that scientists can make between data and the circumstances under which the data were collected. This has traditionally been
-accomplished through journal articles.
-As science becomes more data intensive and means of easily sharing data become more accessible, there is increasing emphasis on building shared
-repositories of scientific data. And yet, it can be difficult to provide an appropriate level of contextual information for the data in such repositories. In this paper, based on a case study of a Materials Science lab group in a major research university, we examine how the daily data practices of scientists might be an aid or impediment to others using their data as evidence in their own studies.</t>
-  </si>
-  <si>
-    <t>This presentation examines the evolution of digital archives in archaeology. As archaeologists continue to utilize new methods for gathering data (e.g. GPS, remote sensing, 3D laser scanning) the nature of the archival record for these researchers is changing. Where archival records in the past were largely considered by archaeologists as proprietary, emerging collaborative research methodologies are challenging this notion. Web-based collaborative research projects and developing archaeological cyberinfrastructures require the sharing of raw data, field notes, journals, maps and other records. This poses new challenges for researchers and archivists, including the issues of records standardization, records ownership and accessibility, and metadata and database standards. Using archaeological fieldwork as a lens, the presentation will address the following questions: 1) What is the role of archivists and information professionals in the emerging world of Web-based collaborative scholarship, as researchers are struggling to bridge the gap between the analog and digital records? 2) What are the barriers to increasing collaboration among researchers and how do archival records play a role in determining the success of such projects 3) How will e-research continue to shape the nature of archival records?</t>
-  </si>
-  <si>
-    <t>Archivists face a number of challenges related to providing public access to digital materials. Digital works may comprise part or all of a given collection. Archivists may seek to digitize material for preservation or for public dissemination. Archivists must make many decisions based on institutional policy, copyright law, donor agreements, and other factors.I discuss my experiences with legal and policy concerns in archives and other cultural institutions, including my work with the American Library Association's Copyright Scholar Network. I also discuss potential research methodologies involved in examining copyright issues in archives, including some ethnography-based methods I am currently examining.</t>
-  </si>
-  <si>
-    <t>In this presentation I will lay out a proposed study and research direction. The study will look at how scientists create and share information, in particular when dealing with digital materials and information technology. In this study, scientists are defined as researchers working in the field of natural science. My research will address the following questions: 1) How does managing digital information affect the everyday workflow of scientists? 2) When completing a project, how do scientists consider the reuse of the materials and artifacts from the project? 3) What problems do scientists encounter when sharing and reusing data and materials fromtheir own past projects? These questions involve issues beyond the typical concerns of creating and maintaining metadata and will also encompass file formats, appraisal and archival habits, and collaborative information seeking behavior. It will also involve how all of these points are affected by the integration of information tools and technology.Other research areas I may cover during this study include information behavior, specifically motivation in relation to information technology. This research will test the assumption that many scientific institutions rely in some part on legacy technology.Researching this topic will determine to what extent this belief holds true. Research in this study would address the behaviors which tie these scientists to dated technology and investigate what prevents them from moving on to modern systems.</t>
-  </si>
-  <si>
-    <t>This paper builds on a small but intriguing social science research literature on interviewing peers and experts. It draws on findings from the author's qualitative investigation of the use of digitized photographic archives by domain experts from a range of occupational strata. The paper analyzes selected exchanges between interviewer and interview participant, with the goal of juxtaposing the roles played by specific terminology and jargon from archival theory and the practice of photography. The paper explores how archival knowledge may be elicited from domain experts through negotiation on the transparency of the interview process itself. The paper concludes with commentary on the particular benefits that accrue to the development of understanding the use of archives from research with populations of experts.</t>
-  </si>
-  <si>
-    <t>Student work is a major product of the academic machine, but it receives short shrift in most institutional archives; even the personal papers of alumni who went on to become famous tend to be light on work done during their school years. The work of student filmmakers is a resource that is often neglected, despite being particularly rich in several respects. This paper will briefly discuss the results of a recent (Spring, 2010) survey of film schools and other colleges nationwide and summarize their practices in retaining, preserving, and providing access to student film productions. Case studies of a few of these archives will provide a jumping-off point for discussing how, when, and why schools create collections of student films, and the implications of their work for archivists who manage audiovisual materials in other institutional contexts.</t>
-  </si>
-  <si>
-    <t>The presentation will examine how the Hamilton Family fonds, and other spirit photography collections have dealt with in archival settings. At the core of the Hamilton fonds are about 700 spirit photographs which will be compared with other fonds/collections of similar photographs in North America and Western Europe. Over the past 30 years the actions of archivists have contributed to how the Hamilton family fonds is used and perceived as much as T.G. Hamiton's camera's did. In the case of the Hamilton photographs the "presence" of the fonds has led to major decisions concerning other fonds or even the direction of archives acquisition policies in general. I will attempt to determine how other archives which hold these types of photographs have approached these kinds of fonds/collections, and what we can say about the archiving of the paranormal in general.</t>
+This study is the first to explore empirically the relationship between appraisal practice and user studies. It employs an online survey and interviews with U.S. state archivists and records managers who conduct appraisal practice. The results will show their current utilization of user studies in appraisal practice by U.S. state archivists and records managers and their attitudes toward user studies’ feasibility and value. This study has been selected to receive the LRRT Jesse H. Shera Award for the Support of Dissertation Research at the 2010 ALA annual conference.</t>
+  </si>
+  <si>
+    <t>Hea Lim Rhee</t>
+  </si>
+  <si>
+    <t>Jane Zhang</t>
+  </si>
+  <si>
+    <t>"We Think, Not I Think": Implications of User Participation for Archival Theory and Practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recent developments in web technologies and social software parallel a cultural shift which challenges the authority of the professional. Despite much argument between advocates of the 'crowd' and the 'expert', there is little understanding of the potential impact of user-generated content upon archival theory and practice.This presentation will outline the starting points for my research: · To examine the utility, usage and broader value of user participation projects in archives, and to identify those factors which lead to their success or otherwise. Are such initiatives scalable to small or independent archives as well as larger, national institutions? · To investigate the impact of collaborative methodologies on professionalism and professional practice, and to consider how user contributions might be incorporated within ISAD(G) · To examine the extent to which these collaborative developments are new phenomena, or whether they are similar to previous 'analogue' attempts to engage with wider communities </t>
+  </si>
+  <si>
+    <t>University of Michigan; University of Michigan</t>
+  </si>
+  <si>
+    <t>Brian Cumer</t>
+  </si>
+  <si>
+    <t>Snowden Becker</t>
   </si>
   <si>
     <t>Institutional archives are spaces regulated by professional guidelines, national and cultural identities and social process, entrusted to preserve the memory of people and nations. These archives are containers of materiality, paying attention to order and preservation. However the material object is only one dimension or representation of culture. Following from Cvetkovich's archive of feelings, with zines as the research site, I consider non-material dimensionality as an absent and uncontainable element of the institutional archive.
@@ -710,236 +901,94 @@
   </si>
   <si>
     <t>The growth of broadband capability has significantly advanced the integration of networked technologies into the home, turning domestic spaces into interactive environments. Functional practices such as crafts, cooking and shopping have been transformed by such technology (Rall, 2007),impacting the "cultural economy" of the home, but also shifting the relations of residents to the public sphere. The rise of video sharing, in particular, has allowed domestic entertainment to take on particular public dimensions, resulting in an intricate system of viewing and recording artifacts along social indicators.
-This project engages the communities built by youth of color in the "response" video genre: the practice of performing or embodying popular videos. In previous work, I examined the responders to Beyonce's "Single Ladies" video: diverse in age, ethnicity, class, gender, and sexuality, each working on a particular set of indexical (Fairclough, 2003) factors. Beyond that phenomenon, thousands of "response" strains cultivate subcultures along existing lines of class, race, gender and sexuality: transgender teens gathering around video diaries, the Latina beauty tutorial community, Asian-American teens' dance videos. The “trace bodies” (Puar, 2007) of virtual activity intersect with physical, raced bodies, but how? Lisa Nakamura (2002) argues that digital settings make "racial and ethnic competence as always the result of a partial, incomplete knowledge", rather than determined by a racialized body. As Nakamura relates the experience to a physical experience of body as well as that of a digital and knowledge body, she outlines a relationship between bodies, cultures, and knowledges. In this model, “race happens” (as well as gender and sexuality) in digital settings, and the ways that it does can iterate an idea of the “real” ethnic experience. Engaging with both the physical (spatial and embodied) and virtual dynamics of these communities (Stone, 1996), I will set out to build a framework for the way that ethnic identification happens on video sites, the values expressed in performance, and the pathways to interaction in this
-environment.
+This project engages the communities built by youth of color in the "response" video genre: the practice of performing or embodying popular videos. In previous work, I examined the responders to Beyonce's "Single Ladies" video: diverse in age, ethnicity, class, gender, and sexuality, each working on a particular set of indexical (Fairclough, 2003) factors. Beyond that phenomenon, thousands of "response" strains cultivate subcultures along existing lines of class, race, gender and sexuality: transgender teens gathering around video diaries, the Latina beauty tutorial community, Asian-American teens' dance videos. The “trace bodies” (Puar, 2007) of virtual activity intersect with physical, raced bodies, but how? Lisa Nakamura (2002) argues that digital settings make "racial and ethnic competence as always the result of a partial, incomplete knowledge", rather than determined by a racialized body. As Nakamura relates the experience to a physical experience of body as well as that of a digital and knowledge body, she outlines a relationship between bodies, cultures, and knowledges. In this model, “race happens” (as well as gender and sexuality) in digital settings, and the ways that it does can iterate an idea of the “real” ethnic experience. Engaging with both the physical (spatial and embodied) and virtual dynamics of these communities (Stone, 1996), I will set out to build a framework for the way that ethnic identification happens on video sites, the values expressed in performance, and the pathways to interaction in this environment.
 On video sharing sites, the performance of race, class, and gender identities both indicate and document complex forms of identity. Perhaps no other media platform allows for so much documentation of culture-building activity, and lends itself to such intense discussion. This paper will illuminate considerations for preservation, collection, and representation of this intimate archive.</t>
   </si>
   <si>
-    <t xml:space="preserve">This presentation will report on the Koorie Archiving System (KAS), an outcome of an Australian Research Council funded project, Trust and Technology: Building Archival Systems for Oral Memory. KAS uses digital technologies and ideas about archives that derive from both postmodern and Indigenous traditions to move beyond conventional configurations of archives; traditional notions of ownership of and rights in government records based on the construct of a singular records creator; and the boundaries we have drawn between personal records and public records, community and government records. It moves towards an archival multiverse in that it aims to provide an archival space where control is shared and all parties involved can negotiate a meta-framework in which multiple perspectives, provenances and rights in records co-exist. The presentation will provide an overview of how the Koorie Archiving System uses web-based technologies to create a shared space for the Public Record Office of Victoria, the Koorie Heritage Trust Inc, the National Archives of Australia, and Koorie communities and individuals to work collaboratively as equal partners to create an archive that operates in both public and personal spacetime, an archive that respects Koorie community requirements relating to Koorie rights in government archival records, and supports Koorie community control of who can use community and personal records and stories according to their access protocols. It will also discuss how KAS provides a demonstrator of a socially inclusive approach to archiving, showing how government and alternate views can be presented in a harmonious environment, while demonstrating how community organisations can integrate government records into their own knowledge and records systems. KAS involves a partnership between Monash University, the Public Record Office Victoria, the Koorie Heritage Trust Inc., the Koorie Records Taskforce, the Indigenous Special Interest Group of the Australian Society of Archivists, the National Archives of Australia and Koorie communities in Victoria (Koorie is a term used to refer to the Indigenous peoples of South Eastern Australia). </t>
-  </si>
-  <si>
-    <t>Archives often regard themselves as memory institutions. However, the archives' role to serve for collective memory has not yet been actively studied. This study looks at how archives can encapsulate collective memory of a certain historical event using social media technologies which facilitate user collaboration and information sharing. In this research project, a virtual archives to document collective memory of the No Gun Ri massacre is being created. The No Gun Ri massacre was a mass killing of more than 400 Korean refugees by American soldiers during the Korean War. The incident began to be researched based on accumulated archives in the survivors' community. The process of building knowledge was notable due to the vigorous controversies and discussions, which have become a part of larger collective memory. Using social media technologies, this archives will provide a space not only to collect and digitize materials but also to provide grounding for the development of collective memory from user contributed contents in the collection.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Developments in emerging digital technologies are making it more possible for previously marginalized, neglected, and buried communities to document themselves, allowing diverse people to (re)discover and (re)claim their histories, identities, and experiences and capture their memories. These people and their communities act as agents in the creation, collection, preservation, and dissemination of their own historical and cultural narratives, while simultaneously (re)producing those narratives as digital records in community-based archives for themselves as testimonies of their histories and identities and to evidence their experiences to the larger globalized world.
-My presentation discusses how Asian American communities are not only reshaping the landscape of archives in digital environments, but also the nature of archives as constructs, rendering themselves (their communities) “visible” through the use of technology that (re)present the narratives of their psychic imaginaries and (re)define their archives as “sites” where histories are transmitted, cultures constructed, and identities transformed. Using the research project with a
-Chinese American community-based organization in Los Angeles, California as an example, this presentation will examine how the availability of and access to new digital media technologies are compelling and propelling “Asian America” into alternative sites of knowledge production that re-imagine the archive to serve communities and their aspirational desires to represent themselves – their histories and identities – while simultaneously creating “new”, alternate records through collaboration.
+My presentation discusses how Asian American communities are not only reshaping the landscape of archives in digital environments, but also the nature of archives as constructs, rendering themselves (their communities) “visible” through the use of technology that (re)present the narratives of their psychic imaginaries and (re)define their archives as “sites” where histories are transmitted, cultures constructed, and identities transformed. Using the research project with a Chinese American community-based organization in Los Angeles, California as an example, this presentation will examine how the availability of and access to new digital media technologies are compelling and propelling “Asian America” into alternative sites of knowledge production that re-imagine the archive to serve communities and their aspirational desires to represent themselves – their histories and identities – while simultaneously creating “new”, alternate records through collaboration.
 </t>
   </si>
   <si>
-    <t>As distance learning transforms academia, archival educators are exploring new methods for educating the next generation of archivists. While the distance environment provides opportunities for flexible and innovative pedagogy, the process of developing and delivering effective distance learning courses is not intuitive, but requires ongoing engagement, experimentation, and evaluation. This workshop will offer strategies for designing distance courses, navigating the logistics of distance course management, and building distance learning communities. 
-Issues to be addressed will include the integration of online and onsite students into class discussions, techniques for designing assignments which involve student presentations and related discussions, and the mechanics of group work combining both online and onsite students. Advance preparation: students who are presently teaching should bring examples of their assignments as a basis for discussion on how they could be changed to work effectively in an online class.</t>
-  </si>
-  <si>
-    <t>This year's workshop builds on and extends the key concepts –diversity, pluralization, cultural sensitivity, community — discussed in part 1. This workshop will review arguments for developing more inclusive approaches to teaching Archival Studies. It will identify curricular and pedagogical strategies for teaching archival curricula in culturally sensitive and culturally relevant ways. It will also discuss the conceptualization of new courses and pedagogical methods specifically designed to meet the needs of diverse communities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Today, libraries, archives, museums, and other cultural heritage institutions are responsible for preserving information in digital form that has potential to serve as valuable cultural records. If persistent access to such material is lost, society at-large stands much to lose. One powerful way of ensuring persistent access to digital material of enduring value is by creating preservation metadata for digital objects (Conway, 1996; Hedstrom, 2003; Lavoie and Gartner, 2005). In 2006, the PREservation Metadata Implementation Strategies (PREMIS) Data Dictionary was awarded the Society of American Archivists’ Preservation Publication Award for being “intellectually sophisticated, groundbreaking, truly collaborative and international in scope and of great significance for the archival preservation community” because of its response to “an emerging need shared by archives and cultural heritage institutions implementing digital archiving capacity and infrastructure” (Society of American Archivists, 2006). Despite its significance, many institutions have not adopted the PREMIS Data Dictionary (Alemneh, 2008). In order to mitigate or remove completely barriers to the adoption of PREMIS, the researcher argues that attention should now be focused on the implementation process. In this qualitative case study analysis, the researcher conducted in-person interviews, field observations, and also collected prototype examples at the Florida Center for Library Automation’s (FCLA) Florida Digital Archive (FDA). Relying on Diffusion ofInnovations and Management Science &amp; Information Systems literature, coupled with analysis of the data collected, an Iterative Model for the Adaptation Stage of the PREMIS Implementation Process is proposed. In conclusion, this case study suggests that seemingly innocuous decisions by developers have real implications, not only for how a preservation model is enacted, but more importantly, for how preservation is actually constructed in digital repositories. A deeper understanding of the PREMIS implementation process will advance the goals of the digital preservation community to implement PREMIS widely in organizations that preserve digital content. Because preservation metadata is essential to ensuring preservation and access to digital material over the long term, society as a whole will benefit if PREMIS implementation can be broadly accomplished. </t>
-  </si>
-  <si>
-    <t>The Australian Women’s Register is a specialist central access point to information about Australian women and their achievements, along with the multifarious resources in which aspects of their lives are documented. It provides a gateway to archival and published material  relating to Australian women held in cultural institutions as well as in private hands. This presentation will provide an overview of the EAC harvesting facilities developed to enable metadata from the Register to become part of the National Library of Australia’s Trove discovery service. It will focus on how EAC has been implemented and the partnership between librarians, archivists and historians that made it happen. It will discuss how this work to foster the development of complicit systems aims to increase the productivity of those associated with the creation, management and use of source material for historical research, and allow a rich multiplicity and variety of voices to contribute their knowledge into resource discovery systems.</t>
-  </si>
-  <si>
-    <t>Digital forensics is the branch of forensic science that seeks to capture, analyze, explain, and preserve legal evidence found in a digital artifact or system. A fast growing trend in archival studies is the exploration of digital forensic techniques as a means of informing archival thought and improving digital preservation practices. In this presentation, I will explore the current literature, identify converging communities of practice, and consider the implications of digital forensics for archivists and digital preservation.</t>
-  </si>
-  <si>
-    <t>This study is mainly interested in how the international standard, the ISAD(G), impacts local practice in the non-Western country and how the Western archival paradigm embedded in the ISAD(G) standard has been adopted within non-Western societies. While several studies have been conducted on the implementation of the ISAD(G) in Western countries, the Asian national and local experience of the standard remains relatively unexplored. Here, the study conducted a case study in Korean. It explored the use and understanding of the standard in Korean archival settings and analyzed some issues arising during the development of the system based on the standard.</t>
-  </si>
-  <si>
-    <t>[No abstract in program.]</t>
-  </si>
-  <si>
-    <t>The Documentation Strategy (DS) was developed in the 1980s as a methodology intended to assure the documentation of an ongoing issue, activity, or geographic area through the design, promotion, and implementation of a mechanism between records creators, administrators, and users. Yet, while the DS fosters collaborative work, the role of archival educators in this process has not been thoroughly discussed in the archival literature. Although educators may not be able to overtly guide the selection and retention of collections, they can raise awareness and establish networks to bring together students, practitioners, and other community members to address the challenges faced with archival collections. This paper will discuss the pros and cons encountered when appropriating the DS in the classroom by presenting a case that aimed to begin to document the state of Pittsburgh’s motion picture film collections.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social theory is the use of theoretical frameworks to interpret social structures and phenomena. It has become more important to the archives discipline simply because the nature of records, their creation, and circumstances of their existence are increasingly complex. Social theory has impacted graduate archives education and the broader profession in several ways. It has inspired the notion that archivists must be knowledgeable beyond the skills and tasks that comprise the day-to-day operations of archives repositories. Individual and institutional actions are influenced by larger social forces, and as such a theoretical comprehension of these forces is necessary to examine how and why things are done over time.Social theory, whether grounded in existing archival theory or borrowed from outside disciplines, is necessary to provide archives professionals a keener sense of what is happening around them. The presentation will discuss the incorporation of social theory into archives education and what this has meant for the broader archives profession. Based on a review of relevant archives education literature and a survey of archives educators, the author suggests that social theory has had a significant but subtle impact on archives education but will become increasingly necessary for the profession to deal with evolving social, political, and technological realities.
+    <t>University of South Carolina; Mid Sweden University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As distance learning transforms academia, archival educators are exploring new methods for educating the next generation of archivists. While the distance environment provides opportunities for flexible and innovative pedagogy, the process of developing and delivering effective distance learning courses is not intuitive, but requires ongoing engagement, experimentation, and evaluation. This workshop will offer strategies for designing distance courses, navigating the logistics of distance course management, and building distance learning communities. 
+Issues to be addressed will include the integration of online and onsite students into class discussions, techniques for designing assignments which involve student presentations and related discussions, and the mechanics of group work combining both online and onsite students. Advance preparation: students who are presently teaching should bring examples of their assignments as a basis for discussion on how they could be changed to work effectively in an online class.
+Suggested pre-readings
+Anderson, K. (2005) 'Discussions in Developing online learning communities for student information professionals'. TILC@ECU: Proceedings of the Inaugural Transforming Information and Learning Conference: Information, Libraries and eLearning, 30 September - 1 October, Edith Cowan University, Mount Lawley Campus. http://conferences.scis.ecu.edu.au/TILC2007/tilc-2005.php or http://conferences.scis.ecu.edu.au/TILC2007/documents/2005/TILC%202005%20Karen%20Anderson.pdf
+Hara, Moriko and Rob King. "Students' frustrations with a web-based distance education course." First Monday, 4 (12) Dec 1999
+Lorenzen, Michale. “Distance education: delivering instruction in cyberspace.” C&amp;RL NEWS May 1998, vol. 59(5). http://www.ala.org/ala/mgrps/divs/acrl/publications/crlnews/1998/may/distanceeducation.cfm 2005 update - http://www.ala.org/ala/mgrps/divs/acrl/publications/crlnews/resources/distanceed.cfm
+Wolff, B.G. and M. R. Dosdall, "Weighing the risks of excessive participation in asynchronous online discussions against the benefits of robust participation." MERLOT Journal of Online Learning and Teaching, 6(1): 55-61, March 2010
+Other useful resources
+Ko, Susan and Rossen, Steve. Teaching Online: A Practical Guide. Boston: Houghton Mifflin Company, 2001.
+Palloff, Rena M. and Pratt, Keith. Lessons from the Cyberspace Classroom: The Realities of Online Teaching. San Francisco: Jossey-Bass, 2001.
+Salmon, Gilly. E-tivities (2002). Key ideas from this book are discussed at http://www.atimod.com/e-tivities/intro.shtml. Of particular interest are her 5-stage model of development of e-learners at: http://www.atimod.com/e-tivities/5stage.shtml and the extracts from chapter 4 on key principles for building e-tivities and on building reflection opportunities into online work: http://www.atimod.com/e-tivities/extracts.shtml.
 </t>
   </si>
   <si>
-    <t>Although the task of establishing and maintaining relationships with external organizations for purposes of providing field experience or internships for masters students may fall to junior faculty, it can serve as an opportunity for collaborative research. While the host site may see the field experience as an inexpensive means to achieve a particular institutional goal, for which they lack the internal resources, or to supplement the ongoing work of providing access to collections, you and your students could take advantage of this invitation to explore the intellectual structure of the institution, especially the creation and organization of its records.
-Looking beyond the usual suspects such as your region’s historical societies and museums, opportunities for a fruitful collaborative experience abound, including social clubs, performing arts organizations and non-academic departments within a university. This paper reports on several recent collaborations with a willing experimental subject – the host site itself.</t>
-  </si>
-  <si>
-    <t>Focusing on the pedagogical issues surrounding the integration of different technologies into the archival/preservation classroom, this workshop presents these issues from the three different perspectives of the presenters, each of whom is currently engaged in disparate research addressing these digital concerns. After an overview of each presenter’s approach, they will then engage the audience in designing activities, learning objectives, and evaluation approaches related to introducing archival/preservation technologies into the curriculum through a series of group exercises and scenarios in a digital environment.
-Goals of this workshop are:
--Understanding different approaches to integrating archival technologies.
--Recognizing alternate ways of teaching digital material in digital environment
--Helping participants avoid teaching to the tool
--Identifying appropriate learning objectives for technological activities
--Designing appropriate evaluations</t>
-  </si>
-  <si>
-    <t>My research investigates the maintaining behavior of personal information, by examining the influence of sense of self on conscious decisions to maintaining digital objects n personal computers. An individual’s sense of self may motivate how or why individuals maintain one digital object over another digital object. Sense of self may also be related to an individual’s concept of the “importance” of an item.
-Information about individual’s maintaining behavior can be of use to developers of personal information management tools and archivists who practice pre-custodial intervention in association with personal papers collections. To investigate this area, I have developed a two-part study involving the use of q methodology, a sorting activity and qualitative interviews. In my presentation I will discuss why I chose these methods to conduct my research and how previous research in social psychology, compulsive hoarding and the study of possession has influenced the design of my study.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is a direct relationship between quality of life and our ability to maintain a coherent sense of self. In light of evidence that memory loss, particularly in the aged, will become more commonplace, the issues raised are not only for the potential sufferers but also to the family, friends and extended carers who will be responsible for their wellbeing.
-Findings suggest that there are a number of common themes emerging across multidisciplinary research particularly in regard to the nature of memory, and the triggers which constitute the record. The convergence of these findings creates the opportunity for the archival profession to contribute therapeutically in the area of health and aging by applying contemporary and evolving theories to the creation of
-the personal archive.
-The Personal Archive is an electronic register of objects, stories and images which represents autobiographical memories. Each entry in the archive is annotated with important information that provides context for the documented people, events and places. </t>
-  </si>
-  <si>
-    <t>This paper examines the contribution of the archival field to the literature of recordkeeping behavior. The study of recordkeeping, the process of individuals and institutions creating, managing, and using records to support their activities, is a rich and diverse field of research. Studies have examined recordkeeping practices in a wide variety of industries, particularly healthcare, law enforcement, and other fields that are characterized by records-intensive work. Research has come from a variety of disciplines, including anthropology, history, organizational behavior, human-computer interaction, and archival science. This paper explores patterns and trends in this area of study, focusing in particular on the research produced by archival educators and practitioners.</t>
-  </si>
-  <si>
-    <t>The proposed presentation will examine Electronic Health Record (EHR) systems through both an empirical study of the implementation of an EHR system at a community health clinic and a conceptual analysis that interrogates claims made for and about EHRs. This conceptual analysis brings together three conventionally separate ways of understanding electronic records: systems design, sociotechnical analysis and archival science, in hopes of arriving at a vision of EHR systems that takes into account the questions of justice and equity in addition to the dominant mandate for technical efficiency.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Building off the preliminary research I presented at AERI 2009, this paper draws on the ongoing human rights tribunal in Cambodia to argue that archives play a significant role in fostering three elements essential to Cambodia’s recovery: accountability, truth, and memory. First, archives have an enduring power to hold the Khmer Rouge regime accountable because they were the catalyst for an ongoing international human rights tribunal, as shown by the relentless activism of the archive’s director, international efforts to preserve Khmer Rouge records, and the correlation between indictments and documentary evidence. Secondly, this paper posits that archives make a significant contribution to the establishment of truth because they have epistemological validity over the testimony of survivors, as seen repeatedly throughout the tribunal. Finally, this paper argues that the archive is succeeding in constructing memory of the Khmer Rouge era because it is forcing Cambodia to deal with its uncomfortable past by giving voice to survivors, creating textbooks, and conducting outreach. This paper is rooted in the field of archival studies within the discipline of library and information science, but draws on history, Cambodian studies, and legal studies. Employing transcripts of the ongoing tribunal, NGO reports, and newsletters as primary sources, the paper argues that, while archives have been successful in holding the Khmer Rouge accountable, establishing truth, and creating memory, only a tribunal can administer justice.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All records are potentially valuable sources of community knowledge, such as the land, the people, oral knowledge and memory, archaeology, paper records, multi-media, digital collections, community and organisational documents, photographs, and visual and performance art. Collectively they are a community archive. But how does the community hold onto that knowledge and make it accessible? What are the frameworks, processes and protocols? What relationships exist between a community archive and other archival collections and institutions?
-This presentation will be on the development over the past year of the research project Holding Gunditjmara Knowledge: Community and records working together. This is a partnership project of the Gunditj Mirring Traditional Owners Aboriginal Corporation (RNTBC) that represents Gunditjmara traditional owners (as identified in the Gunditjmara Native Title Claim Consent Determination 2007) and Monash University. This research plans to answer these questions and others in relation to Gunditjmara knowledge of the Lake Condah area. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A major contribution of postmodern approaches has been the call to address the socio-political and cultural implications of archival work. These articulations gestured toward an iteration of archival discourse that challenged the long-held assumptions of the field. However, much of this archival work that focuses on issues stemming from cultural difference, marginalization, and oppression has tended to focus on filling the gaps of the documentary record, rather than transforming the discursive and ideological structures themselves. This presentation argues that many of the admonitions offered by postmodern archival scholars are gestures toward a yet-to be-articulated archival discourse of postcoloniality. Secondly, this presentation will outline the particular features of a postcolonial Archival Studies discourse in order to identify a “postcolonial turn” in Archival Studies. To this end, I will attempt to apply postcolonial frameworks for interrogating and critiquing the liberalist rhetoric of “multiculturalism” and “diversity” as it surfaces in archival discourse.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This paper explores contemporary artists’ engagement with archives as thematic/aesthetic concepts deployed to address questions about memory’s relationship to discourse and as a material placeholder for “personal” and “official” histories. It examines the premise of a recent multimedia and multidiscipline exhibition, “Archive Fever: Uses of the Document in Contemporary Art,” organized by the International Center of Photography in New York City in 2008. Inspired by Derrida’s Archive Fever, the exhibition explores the archive as a mode of creative production in the works of many prominent contemporary artists, including Christian Boltanski, Felix Gonzalez-Torres, Sherrie Levin and Glenn Ligon. This paper also discusses the theme of documenting and constructing loss and memory in Cai Guo-Qiang’s current exhibit jointly organized by the Fabric Museum and Workshop and Philadelphia Museum of Art, as well as the ambitious “Palace of Projects” by Ilya and Emilia Kabakov, described by critics as “an archive of utopian ideas.” The survey of this diverse collection of contemporary art addresses more recent theoretical developments in archival studies which deal with issues of evidence, representation and affect, as well as with core archival values and methodologies as understood by archival scholars and archivists working with both physical and digital objects, e.g. records continuum theory, LOCKSS (Lots of Copies Keep Stuff Safe), and “More Product, Less Process.” How do these artists appropriate archival concepts? In what ways do their works offer a critique of the archival process/thinking that exists in both personal and institutional collections? </t>
-  </si>
-  <si>
-    <t>My talk at AERI is based on the research I am doing for a book (Everyday Literacy: The Role and Function of Writing and Recording as Viewed through the 4-H Movement) that is looking into approaches to the study of everyday writing and recording. Part of this work involves analyzing a diverse body of literature from outside the archival realm. In marrying understandings from archival science with that of sociology, anthropology, history, digital and print culture, education, gender and ethnic studies, history of science, computer supported cooperative work, rhetoric, composition, and literacy my goal is to be at the forefront of articulating and facilitating the nascent interdisciplinary field of document studies. In my talk a particular emphasis will be placed on how the concept of everyday documents and the notion of document work is conceptualized and theorized in a number of communities with a vested interest in documents and records, Workplace Studies, Computer Supported Cooperative Work, and Genre Studies.</t>
+    <t>Implementing PREMIS: A Case Study of the Florida Digital Archive.</t>
+  </si>
+  <si>
+    <t>ISAD(G) and the development of archival descriptive standard in Korea</t>
+  </si>
+  <si>
+    <t>Investigating Individuals’ Conscious Decisions to Maintain Digital Possessions</t>
+  </si>
+  <si>
+    <t>Contributions from the Archival Profession to the Literature of Recordkeeping Behavior</t>
+  </si>
+  <si>
+    <t>Joanne Mihelcic</t>
+  </si>
+  <si>
+    <t>Electronic Health Records and the Health Information Technology for Economic and Clinical Health (HITECH) Act</t>
+  </si>
+  <si>
+    <t>Michelle Caswell</t>
+  </si>
+  <si>
+    <t>University of Wisconsin</t>
+  </si>
+  <si>
+    <t>Issues Regarding Records Management in Enterprises and Organizations in the Public Sector</t>
   </si>
   <si>
     <t>One of the main issues I investigated in my doctoral dissertation is the influence exercised by dissimilar organizational cultures on the ways in which both the purpose of classification and the concept of business function are understood by
-developers and users of function-based records classification systems in organizations.Having observed that the meanings of records classification and function are not adequately described in the records management and archival literature, I formulated the research hypothesis that the characteristics of existing classification systems as well as the enactment modes of such systems by their users are specific to each organizational context.This presentation will provide an account of the methodology I employed and some of the findings of the multiple-case research I conducted in four selected Central Banks in Europe and North America</t>
-  </si>
-  <si>
-    <t>1) to investigate the current problems and employee perspectives regarding health records management and system implementation at one medium-sized dental school and affiliated clinics; and 2) to determine a strategy to ensure reliable records management practices at the clinics. To examine the dental clinics’ recordkeeping practices, the research team conducted face-to-face interviews and reviewed current systems. The research team also spoke to a representative of the software application company. The findings of the study show that the current practice at the dental clinics has many issues preventing efficient EHR management, such as successful transition, technical support and equipment, effective communication, training, sharing visions and knowledge. To solve indentified challenges, we suggest a strategy to upgrade the system and merge databases into a central one. We also suggest three scenarios to figure out the best implementation strategy for the clinics.</t>
-  </si>
-  <si>
-    <t>Government agencies have been characterized as bureaucratic organizations that are rigid and slow in reacting to changing organizational environments. However, this is slowly changing and municipalities are now required to re-engineer their work processes in order to elevate efficiency as the demand for quality services from the citizens increases. Through web based technologies information is being disseminated to the citizens and a two-way communication flow has been established. The management of information is crucial to this process. Records Management (RM) is the information management construct that has been employed to manage public information but now, Enterprise Content Management (ECM) is being promoted as the panacea to effective information management. Sundsvall and Härnösand municipalities in Sweden will provide case studies for this research project that will illuminate
-the challenges faced by local government in this shifting environment.</t>
-  </si>
-  <si>
-    <t>Archivists have traditionally had a mandate to collect, organize and classify records, often late in the process after they have been delivered to the archives. This is reflected in organizational structures, where the archivists have rarely had a strategic management role although in Sweden there is clear and universally known legislation defining archives and the archival responsibilities of public organizations. With the transition from paper-based to electronic records, information can now be used strategically, for example through e-services. The challenge for the profession is to raise awareness that we are active strategists and information managers. My research motive is to establish if and how this change affects the records and archives professionals and the archive as a function. I intend to conduct a quantitative study on municipalities regarding the strategic planning of digital archives with a deeper qualitative focus on organizations that have undertaken organizational change when implementing electronic recordkeeping systems.</t>
-  </si>
-  <si>
-    <t>Museums worldwide are wrestling with questions about the representation of indigenous peoples in museum exhibits. Who decides how a culture is portrayed? Does context matter? What happens when members of the community speak out against museum exhibits? U-M Exhibit Museum of Natural History director Amy Harris will discuss these questions in telling the story of reaching the decision to remove 14 immensely popular — and largely accurate — miniature dioramas of Native American cultures from her museum in a process that unfolded over nearly 10 years.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“L’ archivistique est-elle une science ou un art?” was the question put by Bruno Delmas (France) at the conference “Archival science on the threshold of the year 2000” held in 1990 at the University of Macerata (Italy), and he repeated the question in the first issue of the journal Archival Science, published in 2001.[1] However, while his original question can be translated as I have done in the title of this presentation, Delmas used in the Archival Science article a different term, asking “Is archiving a science or an art?”. The difference is not just a slip of the pen while translating: the contrast reflects the distinction between archivage (archiving) and archivistique (archivistics or archival science) which through time and in different places are being interpreted differently. I propose to discuss this theme by exploring research in archiving and archivistics within the European context.
-I further argue that such research has to be interdisciplinary. In contexts which are always changing in time-space, the record is continuously mediated and activated. To understand that agency, archivistics needs to ally with and be challenged by other disciplines who study human perception, communication, and behavior. Scholars of archivistics are learning (or relearning) from anthropologists, sociologists, psychologists, philosophers, cultural and literary theorists: to look up from the record and through the record, looking beyond – and questioning - its boundaries, in new perspectives seeing (to use Tom Nesmith’s magnificent expression) with the archive, trying to read its tacit narratives of power and knowledge.
-After (or perhaps entwined with) my presentation I will engage the other plenary speakers Margaret Hedstrom, Cal Lee, and Lorraine Eakin-Richards and the audience in a discussion of the topic of archival research and interdisciplinarity.
-[1] Bruno Delmas, ‘Bilan et perspective de l’archivistique française au seuil du troisième millénaire’, in: Oddo Bucci (ed.), Archival science on the threshold of the year 2000 (University of Macerata, Macerata 1992) 81-109; Bruno Delmas, ‘Archival Science facing the Information Society’, Archival Science 1 (2001) 25-37. </t>
-  </si>
-  <si>
-    <t>Archival Science and Domain Knowledge: An Interdisciplinary Epistemology</t>
-  </si>
-  <si>
-    <t>How to Win Collaborators and Influence Disciplines: Lessons for the Archival Profession</t>
-  </si>
-  <si>
-    <t>Seeing the world through different eyes: Conducting Archival User Studies</t>
-  </si>
-  <si>
-    <t>Into the Labyrinth: Reciprocity between Archival Research and Practice and That of Closely Allied Disciplines</t>
-  </si>
-  <si>
-    <t>Data Practices in a Materials Science Lab</t>
-  </si>
-  <si>
-    <t>Archaeology and Digital Archive</t>
-  </si>
-  <si>
-    <t>Copyright Challenges with Public Access to Digital Materials in Cultural Institutions</t>
-  </si>
-  <si>
-    <t>A proposed study of natural scientists in their natural habitats: Information behavior and workflow habits of
-natural scientists</t>
-  </si>
-  <si>
-    <t>Interviewing Expert Users of Digitized Photographs</t>
-  </si>
-  <si>
-    <t>On Janus and Juvenilia: Preserving student films in institutional archives.</t>
-  </si>
-  <si>
-    <t>Archiving of the Paranormal: The Case of Spirit Photography</t>
-  </si>
-  <si>
-    <t>Zines, Archiving materiality; everyday zine practices and the archive</t>
-  </si>
-  <si>
-    <t>[No institution in program.]</t>
-  </si>
-  <si>
-    <t>[No presenter in program.]</t>
-  </si>
-  <si>
-    <t>Louisiana State University</t>
-  </si>
-  <si>
-    <t>Experimenting with the Documentation Strategy in the Classroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social Theory in American Archives Education: Perspectives from Archives Educators
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seeing Research Potential in Collaborative Projects
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> University of Wisconsin</t>
-  </si>
-  <si>
-    <t>Khmer Rouge Archives: Accountability, Truth, and Memory in Cambodia</t>
-  </si>
-  <si>
-    <t>Holding Gunditjmara Knowledge: Community and Records Working Together</t>
-  </si>
-  <si>
-    <t>http://aeri.website/aeri-2010-conference-schedule/
-https://web.archive.org/web/20100818065147/http://aeri2010.wetpaint.com:80/page/Plenaries
-Archived website captured on Aug 18, 2010, accessed via Wayback Machine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://aeri.website/aeri-2010-conference-schedule/
-https://web.archive.org/web/20100926070850/http://aeri2010.wetpaint.com:80/page/Archival+Education 
-This is an archived version of the original AERI 2010 Wiki, captured Sep 26, 2010.
-</t>
-  </si>
-  <si>
-    <t>http://aeri.website/aeri-2010-conference-schedule/
-https://web.archive.org/web/20100926070850/http://aeri2010.wetpaint.com:80/page/Archival+Education 
-This is an archived version of the original AERI 2010 Wiki, captured Sep 26, 2010.</t>
-  </si>
-  <si>
-    <t>http://aeri.website/aeri-2010-conference-schedule/
-https://web.archive.org/web/20100926065024/http://aeri2010.wetpaint.com:80/page/Renegotiating+Principles+and+Practices
-Page was captured and archived on Wayback Machine Sep 26, 2010.</t>
-  </si>
-  <si>
-    <t>http://aeri.website/aeri-2010-conference-schedule/
-https://web.archive.org/web/20100926065024/http://aeri2010.wetpaint.com:80/page/Renegotiating+Principles+and+Practices
-Page was captured and archived on Wayback Machine Sep 26, 2010</t>
-  </si>
-  <si>
-    <t>http://aeri.website/aeri-2010-conference-schedule/
-https://web.archive.org/web/20100926062300/http://aeri2010.wetpaint.com:80/page/Communities+of+records
-Page captured and archived on Sep 26, 2010</t>
-  </si>
-  <si>
-    <t>http://aeri.website/aeri-2010-conference-schedule/
-https://aeri.gseis.ucla.edu/Museums%20Working%20with%20Communities_%20The%20Native%20American%20Dioramas%20-%20AERI%202010.pdf</t>
-  </si>
-  <si>
-    <t>Marginal Evidence: Towards an Articulation of Postcoloniality in Archival Theory</t>
-  </si>
-  <si>
-    <t>Archival Practices/Concepts in Contemporary Art</t>
-  </si>
-  <si>
-    <t>Records Across the Disciplines: In Search of a Document Centered Research Community</t>
-  </si>
-  <si>
-    <t>Museums Working with Communities: The Native American Dioramas</t>
-  </si>
-  <si>
-    <t>Archivistics: science or art?</t>
+developers and users of function-based records classification systems in organizations. Having observed that the meanings of records classification and function are not adequately described in the records management and archival literature, I formulated the research hypothesis that the characteristics of existing classification systems as well as the enactment modes of such systems by their users are specific to each organizational context.This presentation will provide an account of the methodology I employed and some of the findings of the multiple-case research I conducted in four selected Central Banks in Europe and North America.</t>
+  </si>
+  <si>
+    <t>The objectives of the study is 1) to investigate the current problems and employee perspectives regarding health records management and system implementation at one medium-sized dental school and affiliated clinics; and 2) to determine a strategy to ensure reliable records management practices at the clinics. To examine the dental clinics’ recordkeeping practices, the research team conducted face-to-face interviews and reviewed current systems. The research team also spoke to a representative of the software application company. The findings of the study show that the current practice at the dental clinics has many issues preventing efficient EHR management, such as successful transition, technical support and equipment, effective communication, training, sharing visions and knowledge. To solve indentified challenges, we suggest a strategy to upgrade the system and merge databases into a central one. We also suggest three scenarios to figure out the best implementation strategy for the clinics.</t>
+  </si>
+  <si>
+    <t>Proscovia Svärd</t>
+  </si>
+  <si>
+    <t>Government agencies have been characterized as bureaucratic organizations that are rigid and slow in reacting to changing organizational environments. However, this is slowly changing and municipalities are now required to re-engineer their work processes in order to elevate efficiency as the demand for quality services from the citizens increases. Through web based technologies information is being disseminated to the citizens and a two-way communication flow has been established. The management of information is crucial to this process. Records Management (RM) is the information management construct that has been employed to manage public information but now, Enterprise Content Management (ECM) is being promoted as the panacea to effective information management. Sundsvall and Härnösand municipalities in Sweden will provide case studies for this research project that will illuminate the challenges faced by local government in this shifting environment.</t>
+  </si>
+  <si>
+    <t>Professional Challenges in Electronic Recordkeeping in Sweden</t>
+  </si>
+  <si>
+    <t>The Native American Dioramas and the Exhibit Museum</t>
+  </si>
+  <si>
+    <t>University of Denver</t>
+  </si>
+  <si>
+    <t>Carol Brock, Katie Pierce; April Norris</t>
+  </si>
+  <si>
+    <t>University of Texas; University of Texas; University of Texas</t>
+  </si>
+  <si>
+    <t>Joel Blanco-Rivera</t>
+  </si>
+  <si>
+    <t>Kaitlin Costello; Jason Priem</t>
+  </si>
+  <si>
+    <t>University of North Carolina; [No institution in program.]</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1052,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1039,6 +1088,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1051,7 +1113,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1062,13 +1124,79 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1420,45 +1548,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFEFE02-9459-C642-9513-040602B64841}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.296875" customWidth="1"/>
+    <col min="2" max="5" width="28.69921875" customWidth="1"/>
+    <col min="6" max="6" width="57.09765625" customWidth="1"/>
+    <col min="7" max="8" width="28.69921875" customWidth="1"/>
+    <col min="9" max="9" width="31.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="257" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="256.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2010001</v>
       </c>
@@ -1466,28 +1598,28 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="236" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="235.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2010002</v>
       </c>
@@ -1495,7 +1627,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -1504,27 +1636,27 @@
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="312" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2010003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>249</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -1533,19 +1665,19 @@
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2010004</v>
       </c>
@@ -1553,7 +1685,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -1561,20 +1693,20 @@
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>189</v>
+      <c r="F5" s="9" t="s">
+        <v>250</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2010005</v>
       </c>
@@ -1582,36 +1714,36 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2010006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>115</v>
+        <v>251</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -1620,19 +1752,19 @@
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="156" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2010007</v>
       </c>
@@ -1640,28 +1772,28 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2010008</v>
       </c>
@@ -1669,7 +1801,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>24</v>
@@ -1677,28 +1809,28 @@
       <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>193</v>
+      <c r="F9" s="10" t="s">
+        <v>252</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2010009</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
@@ -1706,20 +1838,20 @@
       <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>194</v>
+      <c r="F10" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2010010</v>
       </c>
@@ -1727,7 +1859,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>29</v>
@@ -1736,1034 +1868,1034 @@
         <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="312" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2010011</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>196</v>
+        <v>32</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="234" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2010012</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>257</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2010013</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>198</v>
+      <c r="E14" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>259</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2010014</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="312" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2010015</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>110</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>260</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2010016</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2010017</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="390" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2010018</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2010019</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2010020</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>262</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="234" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2010021</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2010022</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>263</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2010023</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>208</v>
+        <v>122</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>264</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2010024</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2010025</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2010026</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>211</v>
+        <v>48</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>265</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2010027</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>128</v>
+        <v>266</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>212</v>
+        <v>50</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>267</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2010028</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2010029</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>2010030</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>63</v>
+        <v>268</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>2010031</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>2010032</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>2010033</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>66</v>
+        <v>269</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="234" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>2010034</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>110</v>
+        <v>182</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>2010035</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>110</v>
+        <v>183</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>2010036</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>110</v>
+        <v>184</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>2010037</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>2010038</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>2010039</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>272</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>2010040</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="156" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>2010041</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>2010042</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>274</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="312" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>2010043</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>2010044</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>2010045</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>2010046</v>
       </c>
@@ -2771,586 +2903,594 @@
         <v>23</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="234" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>2010047</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>91</v>
+        <v>276</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>232</v>
+        <v>78</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>277</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>2010048</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>91</v>
+        <v>276</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>233</v>
+        <v>80</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>278</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>2010049</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>95</v>
+      <c r="B50" s="23" t="s">
+        <v>279</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>91</v>
+        <v>276</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>234</v>
+        <v>82</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>280</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>2010050</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>91</v>
+        <v>276</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="156" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>2010051</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>101</v>
+        <v>282</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>2010052</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>2010053</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="D54" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>2010054</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>2010055</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>2010056</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>283</v>
+      </c>
       <c r="D57" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>2010057</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>116</v>
+        <v>284</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>285</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>2010058</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>151</v>
+        <v>286</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>2010059</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>2010060</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>288</v>
+      </c>
       <c r="D61" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>2010061</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>2010062</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>2010063</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>2010064</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>2010065</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>2010065</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="G66" s="2" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I35" r:id="rId1" display="http://aeri.website/aeri-2010-conference-schedule/" xr:uid="{887E9CA5-F3E3-A947-9BB7-DC932DBD9BDC}"/>
-    <hyperlink ref="I36" r:id="rId2" display="http://aeri.website/aeri-2010-conference-schedule/" xr:uid="{11157D97-EC07-7440-A54E-040D46050155}"/>
+    <hyperlink ref="I35" r:id="rId1" display="http://aeri.website/aeri-2010-conference-schedule/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I36" r:id="rId2" display="http://aeri.website/aeri-2010-conference-schedule/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aeri2010_data_reconciled.xlsx
+++ b/aeri2010_data_reconciled.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mallory\Documents\1SCHOOL\Dr Soyka GA Work\AERI Grand Challenges\Uploaded to GitHub and finalized\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HeatherSoyka/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE4A8CD-AEEA-422A-8DDF-CCC399C96A45}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0C4ED0C-9905-214F-BEBE-C9C27CAD4FD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12336" windowHeight="8640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="27700" windowHeight="20800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$1:$I$75</definedName>
+  </definedNames>
   <calcPr calcId="140000"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="316">
   <si>
     <t>ID Number</t>
   </si>
@@ -118,9 +126,6 @@
     <t>University of Pittsburgh</t>
   </si>
   <si>
-    <t xml:space="preserve"> Exploring the Relationship between Archival Appraisal Practice and User Studies in U.S. State Archives and Records Management Programs</t>
-  </si>
-  <si>
     <t>The Principle of Original Order and the Organization and Representation of Digital Archives</t>
   </si>
   <si>
@@ -160,12 +165,6 @@
     <t>Digital Cultural Communities</t>
   </si>
   <si>
-    <t>Towards the Archival Multiverse: The Koorie Archiving System.</t>
-  </si>
-  <si>
-    <t>No Gun Ri Archives: Exploring How Archives Can Use Social Media to Encapsulate Collective Memory.</t>
-  </si>
-  <si>
     <t>History and identity: Creating the diasporic community archive through digital storytelling</t>
   </si>
   <si>
@@ -193,9 +192,6 @@
     <t>Metadata, Systems, Implementation, and Standardization</t>
   </si>
   <si>
-    <t>Reaping Rich Harvests: Opportunities in Implementing EAC.</t>
-  </si>
-  <si>
     <t>Advancing Digital Preservation with Digital Forensics</t>
   </si>
   <si>
@@ -250,9 +246,6 @@
     <t>David Kim</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fiorella Foscarini</t>
-  </si>
-  <si>
     <t>University of Toronto</t>
   </si>
   <si>
@@ -385,12 +378,6 @@
     <t xml:space="preserve">Jeannette Bastian; Peter Wosh; Elizabeth Yakel </t>
   </si>
   <si>
-    <t xml:space="preserve">Eric Ketelaar; Margaret Hedstrom; Cal Lee; Lori Eakin </t>
-  </si>
-  <si>
-    <t>Finding my people: Youtube and the intimate archive.</t>
-  </si>
-  <si>
     <t>Amelia Acker</t>
   </si>
   <si>
@@ -436,9 +423,6 @@
     <t>Manilatown Archival Project: The Past is in the Present</t>
   </si>
   <si>
-    <t>I can leave a record of me": Scholars' attitudes towards archiving their tweets</t>
-  </si>
-  <si>
     <t>Research, Teaching, and Publishing</t>
   </si>
   <si>
@@ -460,75 +444,13 @@
     <t>https://aeri.gseis.ucla.edu/Poster%20Presentations%20-%20AERI%202010.pdf</t>
   </si>
   <si>
-    <t>Historically, library and information studies have answered this tenet of “looking ahead to the boundaries of fields” by creating new information and communication systems and technologies (ICTs) to deal with sheer volume and the need for networked access and sharing. Additionally, the cultural role that the archivist plays in “creating” documentation through organization and preservation of knowledge is often left to critical theorists. But little work has been done that addresses the ways in which new conceptualizations of biotechnical objects and electronic documents, may be understood (or speculated) as records. Though there is no shortage of scholarship on how new technologies problematize understandings of “life,” and living in the 20th century, there is a lack of speculation on how, in this case an established cell line or an electronic document, affects or evades basic concepts in archival thinking, theory and practice.
-This poster will feature a study of keywords that examines and interrogates the act and role of theorizing in the archival realm, which continues to be a source of debate in information studies, as it is often maintained that there is little or no theory to be discussed in terms of archival work. In a review of a book that claims as much, Tom Nesmith advocates for a deeper understanding of the critical role that speculation may offer to archival theory despite more normative aspects of an archivist’s work (Nesmith 1999). Though there is a broad base of literature in Library and Information Science (LIS) that has discussed the nature of information in age of biotechnology, this project will discuss how standardized living technologies may guide us through some new ways of archival thinking—which is much needed for present and future university and funding-agency data documentation mandates.
-This project proposes an exploration into the development of theory and speculation in archiving through a biotechnical lens: specifically, how should information scientists and archivists think of theory as it shapes archival ideas, and how do new types of records such as patented cell lines challenge key archival principles (such as ‘the original’ and ‘provenance’) that archivists and scientific records managers have traditionally espoused? This endeavor is twofold in its aim: 1) it asks what are the responsibilities of archivists to think about the theory relating to, and speculate about the nature of new records in specialized knowledge fields, how those records may document life, or new understandings of life; and 2) it attempts to introduce a new terms to the critical vocabulary of archives, understanding that the informational professional’s agency in “creating” documentation of life will be necessarily predicated in and through our theories about life and origin.</t>
-  </si>
-  <si>
-    <t>This poster traces the evolution and application of the concept of trusted digital repositories from the landmark 1996 Preserving Digital Information, through the work of multiple task forces to an ISO standard and the accompanying guidelines for auditors, anticipated in the
-2010-2011 timeframe. It will hughlight the major criteria of the draft standard.</t>
-  </si>
-  <si>
-    <t>According to the Archival Census and Education Needs Survey in the U.S. conducted in 2004 (A*CENSUS), of the 4,776 individuals responding to the questions regarding age, almost half were over the age of 50. These baby boom generation archivists, who are now 56, are preparing to retire. Thus, one of the inherent challenges of this coming generational changeover will be to identify "effective methods for transferring the knowledge and values acquired through decades of experience from those in the current generation to those who will take their place."
-My research is in the initial stages and is focusing on finding these effective methods. It is based on the findings of a research project I conducted that examined how experienced reference archivists find information in archival collections and what knowledge and skills they acquire and use for searching. Although the quality, quantity and accessibility of finding aids have improved over the last 30 years such that they currently offer researchers, as well as the succeeding archivists, a set of described elements, they contain only a limited amount of knowledge and skills experienced archivists develop. In fact, the eight archivists studied for this research project, who averaged 22 years experience in the same repository, rarely consulted finding aids. They relied more often on their memory of a variety of facts about collections such as episodic memory of events, spatial memory, knowledge of the competence of other archivists working in the repository, social knowledge of the organization and other tactic skills, such as handwriting recognition. My research questions are: what if any, knowledge management methods and techniques have been developed for transferring this type of knowledge? How successful have they been? How can they be applied in archives?</t>
-  </si>
-  <si>
     <t>Katie Pierce, April Norris, and I are applying our archival expertise, preservation knowledge, and records management skills to the Development of the Austin Historical Survey Platform, in order to (1) identify project stakeholders and roles, (2) identify records and other sources of information that may be used to document historic properties, and (3) identify policy and legal considerations regarding access and retrieval, maintenance, and preservation of the incorporated materials. Identifying the stakeholders, records, and policy/legal requirements will enable us to better understand and document stakeholder responsibilities and inform development of a system with improved likelihood of continued use, proper management, and preservation of the web tool and the data sources, while also providing a replicable model for the increasing number of similar projects being developed or considered by other local and state agencies. We intend to do a poster session on our work on this project at this meeting.</t>
   </si>
   <si>
-    <t>The National Security Archive (NSA) is a non-governmental organization based at The George Washington University in Washington, D.C. This research institution collects and makes available records obtained through the U.S. Freedom of Information Act. The organization is very active in legal battles to assure the opening of secret documents and preservation of government records, participation in congressional hearings on issues related to government secrecy and FOIA, and collaboration with organizations abroad, particularly Latin America. Regarding the latter, the NSA has contributed by providing records and expert testimony to criminal investigations and truth commissions, and assistance to human rights organizations and archives of repression such as the Archive of Terror in Paraguay and the Guatemalan National Police Archives. This contribution underscores the importance of records as sources of accountability for human rights violation during periods of repression and internal conflict. An examination of the involvement of the National Security Archive in Latin America provides an opportunity to further study how records affect the implementation of mechanisms of accountability
-in countries under transitions from authoritarianism. This research poster will showcase relevant cases in Latin America in which the National Security Archive provided records and assistance. The cases include legal decisions that describe how these records served
-as evidence and criminal investigations where members of the NSA provided expert testimony on the authenticity of documents.</t>
-  </si>
-  <si>
-    <t>My research poster will explain how Manilatown Archival Project exemplifies why a postcolonial historical, political- economic analysis is important in conducting digital archival work in historically marginalized communities. Manilatown Archival Project is a digital archive situated within the International Hotel (I-Hotel), a Filipino-American community based memory institution that marks a Filipino-American immigrant enclave that once existed on Kearny Street, San Francisco. This archive was set up by activists who were part of the anti-eviction movement. When the financial district's expansion increased land value, this increased the rents, causing Filipino-American businesses and services to move out of the neighborhood. The I-Hotel was the last vestige of this Filipino neighborhood, and the anti-eviction movement emerged to resist the city's favoritism over corporate profits rather than the human rights of people who lived within that community.
-Although the I-Hotel was demolished after the eviction in 1997, it was rebuilt 25 years later due to the continued advocacy of activists. The I-Hotel stands today on Kearny Street as senior housing. On the bottom floor is the Manilatown Center, which houses the digital archives and gallery space. The digital archive's purpose is to preserve the memory of a community that once was there, and to preserve the history of this community's resistance to unjust development policies. Therefore, the archives are not just the photos, texts, oral histories and videos within the digital collection; it is the art gallery that portrays emerging Filipino-American visual artwork, the musical and dance performances, and community events to celebrate or raise awareness on particular issues. Moreover, the network of Filipino and Filipino- American people across the city who continue to advocate for social and economic justice are the "living archives" that preserve the history and legacy of Manilatown. By incorporating culture, body and land as records, they preserve the contextual understanding of the digital archives so that historical education is not about a subject in the past, but has relevance in present day issues.</t>
-  </si>
-  <si>
-    <t>Twitter, which was established in 2006 as a way to communicate in 140 characters or less, is an extremely popular micro- blogging and social networking service used by a variety of people and entities for many purposes, including academics posting about their
-research and teaching activities. Academics are using Twitter to communicate in a wide variety of ways, including finding other academics to collaborate with on projects; sharing citations with others; interacting with students; obtaining feedback on their teaching or presentations; organizing conferences and meetings; and taking notes and participating in backchannel discussions at conferences or other academic events [1]. The tweets of academics have implications for how academia is enacted and shaped in the 21st
-century, particularly with respect to interdisciplinarity; collaboration; definitions and ideas of authorship; bibliometrics and academic impact; and definitions of academic identity and a sense of self. Users can follow or be followed on Twitter; when a user logs in to the site, it displays the 20 most recent posts from the people they follow. There are many third-party services for users to archive their own posts by storing them in the cloud or on their personal computers, but this capability is not built directly into the interface.
-I plan to study whether academics who use Twitter consider their posts or the posts of other academics that they follow to have enduring value. This study is the first in a series of studies designed to address questions surrounding appraisal of web-based interactive
-media. These studies aim to uncover similarities and differences in people’s thoughts about a variety of interactive platforms on the Web. In addition to addressing questions of enduring value, this research also addresses the question of who is responsible for carrying out the activities of selecting posts and making them available for future use. In order to begin answering these questions, I have developed an interview guide for 25-30 semi-structured interviews with academics who use Twitter. The questions for the interview aim to uncover how academics use Twitter; whether they think their posts or the posts that they follow should be preserved for future use; and, if so, who is
-responsible for the project of capturing, preserving, and making them available.
-A recent article about Twitter as a collaborative tool called for persistent archives of Twitter, suggesting the pressing need for research in the area of archiving this social networking system [2]. This study addresses that need by focusing on a specific population of Twitter users who may consider their posts on Twitter to be of value to future users. This study and the subsequent studies in this series will have implications for a wide variety of future research, including informing best practices for selection and appraisal; building tools and systems for the curation of web-based interactive materials; and understanding communication and collaboration among academics.</t>
-  </si>
-  <si>
     <t>This poster will describe my work on four book projects emanating from my teaching and work with students.</t>
   </si>
   <si>
-    <t>Central State Hospital in Petersburg, Virginia, is a state mental institution that was founded at its present location in 1882 to specifically provide services for the African-American population after the Civil War. The hospital continues to serve the central Virginia area today. I am part of a grant-funded project to create a digital library based on the early records from the hospital. The first phase of the project will focus on digitizing all pre-1900 materials other than patient records, with the goal of making them publicly available via the Internet. Beginning this summer, I will be indexing and assessing the condition of these records. My poster consists of a literature review and methodology for a study I will conduct during the project on the relationship between privacy and the digital dissemination of historical medical-related records.
-While the Health Insurance Portability and Accountability Act (HIPAA) of 1996 makes it clear what identifiers constitute protected health information, it is less certain how the act’s privacy rule works retroactively for historical records. In particular, it is unknown how HIPAA applies to various materials that are not explicitly patient records, such as photographs, day books, and board minutes. What is considered “private” and what is of “public interest”? In addition to the legal aspects of privacy, this study will address issues of making highly sensitive materials widely available for research and general interest. Central State Hospital was a facility for both voluntary and non-voluntary patients and the poor. Its staff performed and documented controversial medical practices. The range of possible reactions from descendants of former hospital residents upon the opening of the institutional records need to be understood and addressed before the project is completed.
-For my literature review, I will look at court cases that have interpreted HIPAA, Virginia’s records laws, the archival practices of other U.S. mental institutions, and perspectives from the archival community, historical societies, and patient rights groups. The overarching goal of my study is to assess the types of records and the nature of the patient information, and then to make recommendations on privacy considerations for each record category. Such research will be beneficial to other institutions and archivists who seek to provide greater public access to mental health records for the first time.</t>
-  </si>
-  <si>
-    <t>I plan to present a poster on a joint project I conducted with the Inter-University Consortium for Political and Social Research. This project is an effort to gauge the need for a new approach to data stewardship at the University of Michigan, to discover best practices here and elsewhere, and to propose some avenues that we might follow for providing better data support in the future. Additionally, the project will explore data stewardship efforts at other universities and seek to draw conclusions about researchers' current approaches, attitudes and preferences for data stewardship.
-Like other major research universities, the University of Michigan produces and consumes an enormous and growing amount of research data as part of its daily business. The obligations involved in managing that ever-increasing flow of data are a challenge to the University as an institution, as well as to its faculty, staff, and students. They also present opportunities, especially to work better and more efficiently and to protect the data from loss and harm. Examining researcher's current data stewardship practice, what support they would like, and their attitudes toward data stewardship will help determine whether the University needs a new approach to data stewardship at the institutional level. With an increasing push from funding agencies and some publications for researchers to provide access to their data and to guarantee its long-term preservation, it is important to understand how researchers what they are doing with their data and how they think about
-it in order to provide better support services. This study will explore how researchers are managing their data now as well the factors that have shaped that practice and motivate or inhibit changes to that practice. A combination of survey and interview data yielded both qualitative and quantitative data about how researchers are managing their data, what services they might be interested in, and factors that influence their data management practice.
-This poster presents results from this study, including recommendations made to the University of Michigan Provost’s Office and the Office of the Vice-President for Research.</t>
-  </si>
-  <si>
-    <t>How to understand and capture born digital information is the most challenging issue in archival science today. The revolution of digital technologies allows everyone to contribute, communicate, re-invent and etch out spaces for personal identity, community and visual culture. The use of online social media tools, often referred to as Web 2.0, contributes to a rich born digital cultural heritage, however, in archival science, a space and language for these cultural information systems does not exist. Within a history prestigious museum spaces and worship of the cultural artefact, online digital technologies of the everyday are being lost to the ephemeral or umbrella-ed into web archiving.
-Youtube, a vast user-generated repository of digital moving image material, provides an opportunity for scrutiny of the construct and ongoing development of digital information in online spaces and the potential impact on cultural heritage preservation. Identifying Youtube as a website containing moving image ignores the complex information system that contribute to its existence as a space for cultural stories. The actions of the user reveal the process of cultural heritage formation through small stories and personal memory making. This research investigates the user in the Continuum of (born digital) Cultural Heritage.
-The poster I am presenting introduces the methodological approach to this research project. I have developed a methodological model, based on Information Continuum theory, which incorporates sense-making and reflective practice. Developed by Frank Upward, Information Continuum theory presents a paradigm shifting approach to understanding information capture, organisation and pluralisation in digital spaces.
-Using graphic representations, the poster will showcase the model and its application in my own research practice and development of a methodology. The methodological approach encompasses the multiplicity of online social spaces and embraces multidisciplinary and complex research design. In addition, in applying Information Continuum theory so deeply into methodology, the research, in a sense becomes a reflection of itself by embedding and testing the recursive nature of the construction of knowledge. Finally, the potential of the model for future use in archival science research will be explored.</t>
-  </si>
-  <si>
-    <t>This poster will report on recent research looking at use of mobile devices for the consumption of moving image material from libraries and archives. Laptops, cell phones, iPods, and the recently announced iPad all offer users the opportunity to download, view, and use moving images from library and archival collections in a myriad number of ways and settings, making video consumption an anytime, anyplace phenomenon. This research examines the impact that these technologies are having on consumption of moving images, including how users are incorporating moving image material into their own works and circulating these materials in their social networks.
-Research problems addressed include the following questions:
-• How are institutions distributing archival moving image material online (i.e., in what formats, and for what purposes)? • In what contexts and for what purposes are users downloading and using archival moving image materials on mobile devices?
-• Does contextualization (documentation/curation of moving images) affect usage patterns, both in terms of amount of usage and types of usage?
-• For material that has been digitized, do concerns about moving image quality and presentation affect users’ attitudes toward viewing and reuse of archival moving images?</t>
-  </si>
-  <si>
     <t>There is a strong consensus that archival science is a multi- disciplinary venture, but less agreement on which disciplines are core and which are peripheral to research and practice in archives. In this paper, I will explore two different dimensions of archival science as a multi-disciplinary field. One dimension has to do with the question of which fields or bodies of knowledge constitutes the core of archival science. The second has to do with the relationship between knowledge of archival science and knowledge of the domains in which archival knowledge might be applied to both research and practice. While traditional archives typically operated in the domains of law, administration, and history, contemporary archives can operate in almost any domain. In this presentation, I will attempt to recast the debate about the relationship between archivists and historians to one about interchanges between archival science and domain knowledge.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This workshop offers an in-depth case study of archival resources crucial to heritage preservation, and the relationship of the indigenous community to whom those resources are heritage. Through a journey from discovery of resources to reincorporation, this case offers cautionary notes for archival policies while simultaneously affirming a fundamental mission of archives—to preserve traces of the past for the future.
-The case study involves Native Hawaiians and archival sources central to the traditional practice of hula performance. Poetic texts are the basis for choreography and musical presentation. Through the 19th-century experience of Christian suppression of hula, then colonial education policies that contributed to precipitous decline of the Hawaiian language, the community of skilled hula practitioners became separated from reams of poetic repertoire recorded in unpublished sources, then archived in institutions that, for many decades, were not welcoming to researchers who were not engaged in academic (usually post-graduate level) research. A cultural renaissance in the 1970s, and a language revitalization movement launched in the 1980s, secured renewed interest in hula practices of traditional performance styles that had lain dormant for decades, overshadowed by a market for tourist entertainment instead. Despite the resurgence in traditional performance styles, however, practitioners were still separated from archival resources.
-My research integrates ethnographic documenting of contemporary practices and archival research on repertoire. As an academic, I enjoyed unchallenged access to archival resources. In collaboration with practitioners, we have been staging contemporary settings of archival repertoire, affording me an opportunity to reflect on what it means to experience the contents of poetic repertoire as animated embodied practice. Central to this analysis is the analysis of how archival policies have impacted access, consumption, and presentation.
-In this workshop, I will offer a “guided tour” through processes of archival research, resurrecting repertoire back to performance, and reflecting on past, present and future relationships between indigenous communities and institutions holding resources crucial to a community’s heritage. The workshop has an experiential component—attendees will learn a seated hula, in order to gain an first-hand perspective on why hula is central to Hawaiian culture.
-</t>
   </si>
   <si>
     <t>The goal of this workshop would be to encourage scholars in Archival Studies to take a more active role in IR research and publication by reviewing key concepts and approaches within IR research (primarily within Information Science and Digital Library development) and demonstrating how these might be applied in traditional and digital archives contexts, identifying how practicing archivists currently conduct IR (e.g., exploiting context, documentary relationships, and provenance), and identifying possible research questions and research designs for addressing those questions.</t>
@@ -560,14 +482,6 @@
 In this plenary talk, former economist Lorraine Eakin-Richards will highlight the impacts that these “corporate and social epistemologies” have had upon archives research and upon the still-labyrinthine relationship between archives and several of its allied disciplines. She will bring to bear her practical work experience in enterprise risk management and systems implementation with one of the above mentioned Big Four firms, as well as her experience engaged in sustainability-related research and practice with the Blue Ribbon Task Force and the Dryad scientific data repository. Using her current research on cloud computing as a nascent architecture for sustainable preservation in the public sector, she will discuss the reciprocal relationship between archives and records management, economics, computer science, and ethics in an increasingly distributed computing environment. She will also posit that within the new collaborative environment in which traditional archival theory and the new technologies and disciplines meet, inter- and multi-disciplinary research between these various areas must progressively evolve into an even-wider intellectual multi-disciplinarity, one which is increasingly cross national and multicultural.</t>
   </si>
   <si>
-    <t>Scientific data, like other kinds of records, are the by-products of work that can function as evidence to validate findings and make claims. An important way in
-which archives ensure that records can serve as evidence is by documenting the link between the records and their context of creation. Science also depends
-on the connection that scientists can make between data and the circumstances under which the data were collected. This has traditionally been
-accomplished through journal articles.
-As science becomes more data intensive and means of easily sharing data become more accessible, there is increasing emphasis on building shared
-repositories of scientific data. And yet, it can be difficult to provide an appropriate level of contextual information for the data in such repositories. In this paper, based on a case study of a Materials Science lab group in a major research university, we examine how the daily data practices of scientists might be an aid or impediment to others using their data as evidence in their own studies.</t>
-  </si>
-  <si>
     <t>This presentation examines the evolution of digital archives in archaeology. As archaeologists continue to utilize new methods for gathering data (e.g. GPS, remote sensing, 3D laser scanning) the nature of the archival record for these researchers is changing. Where archival records in the past were largely considered by archaeologists as proprietary, emerging collaborative research methodologies are challenging this notion. Web-based collaborative research projects and developing archaeological cyberinfrastructures require the sharing of raw data, field notes, journals, maps and other records. This poses new challenges for researchers and archivists, including the issues of records standardization, records ownership and accessibility, and metadata and database standards. Using archaeological fieldwork as a lens, the presentation will address the following questions: 1) What is the role of archivists and information professionals in the emerging world of Web-based collaborative scholarship, as researchers are struggling to bridge the gap between the analog and digital records? 2) What are the barriers to increasing collaboration among researchers and how do archival records play a role in determining the success of such projects 3) How will e-research continue to shape the nature of archival records?</t>
   </si>
   <si>
@@ -592,9 +506,6 @@
     <t>Archives often regard themselves as memory institutions. However, the archives' role to serve for collective memory has not yet been actively studied. This study looks at how archives can encapsulate collective memory of a certain historical event using social media technologies which facilitate user collaboration and information sharing. In this research project, a virtual archives to document collective memory of the No Gun Ri massacre is being created. The No Gun Ri massacre was a mass killing of more than 400 Korean refugees by American soldiers during the Korean War. The incident began to be researched based on accumulated archives in the survivors' community. The process of building knowledge was notable due to the vigorous controversies and discussions, which have become a part of larger collective memory. Using social media technologies, this archives will provide a space not only to collect and digitize materials but also to provide grounding for the development of collective memory from user contributed contents in the collection.</t>
   </si>
   <si>
-    <t>This year's workshop builds on and extends the key concepts –diversity, pluralization, cultural sensitivity, community — discussed in part 1. This workshop will review arguments for developing more inclusive approaches to teaching Archival Studies. It will identify curricular and pedagogical strategies for teaching archival curricula in culturally sensitive and culturally relevant ways. It will also discuss the conceptualization of new courses and pedagogical methods specifically designed to meet the needs of diverse communities.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Today, libraries, archives, museums, and other cultural heritage institutions are responsible for preserving information in digital form that has potential to serve as valuable cultural records. If persistent access to such material is lost, society at-large stands much to lose. One powerful way of ensuring persistent access to digital material of enduring value is by creating preservation metadata for digital objects (Conway, 1996; Hedstrom, 2003; Lavoie and Gartner, 2005). In 2006, the PREservation Metadata Implementation Strategies (PREMIS) Data Dictionary was awarded the Society of American Archivists’ Preservation Publication Award for being “intellectually sophisticated, groundbreaking, truly collaborative and international in scope and of great significance for the archival preservation community” because of its response to “an emerging need shared by archives and cultural heritage institutions implementing digital archiving capacity and infrastructure” (Society of American Archivists, 2006). Despite its significance, many institutions have not adopted the PREMIS Data Dictionary (Alemneh, 2008). In order to mitigate or remove completely barriers to the adoption of PREMIS, the researcher argues that attention should now be focused on the implementation process. In this qualitative case study analysis, the researcher conducted in-person interviews, field observations, and also collected prototype examples at the Florida Center for Library Automation’s (FCLA) Florida Digital Archive (FDA). Relying on Diffusion ofInnovations and Management Science &amp; Information Systems literature, coupled with analysis of the data collected, an Iterative Model for the Adaptation Stage of the PREMIS Implementation Process is proposed. In conclusion, this case study suggests that seemingly innocuous decisions by developers have real implications, not only for how a preservation model is enacted, but more importantly, for how preservation is actually constructed in digital repositories. A deeper understanding of the PREMIS implementation process will advance the goals of the digital preservation community to implement PREMIS widely in organizations that preserve digital content. Because preservation metadata is essential to ensuring preservation and access to digital material over the long term, society as a whole will benefit if PREMIS implementation can be broadly accomplished. </t>
   </si>
   <si>
@@ -611,10 +522,6 @@
   </si>
   <si>
     <t>The Documentation Strategy (DS) was developed in the 1980s as a methodology intended to assure the documentation of an ongoing issue, activity, or geographic area through the design, promotion, and implementation of a mechanism between records creators, administrators, and users. Yet, while the DS fosters collaborative work, the role of archival educators in this process has not been thoroughly discussed in the archival literature. Although educators may not be able to overtly guide the selection and retention of collections, they can raise awareness and establish networks to bring together students, practitioners, and other community members to address the challenges faced with archival collections. This paper will discuss the pros and cons encountered when appropriating the DS in the classroom by presenting a case that aimed to begin to document the state of Pittsburgh’s motion picture film collections.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social theory is the use of theoretical frameworks to interpret social structures and phenomena. It has become more important to the archives discipline simply because the nature of records, their creation, and circumstances of their existence are increasingly complex. Social theory has impacted graduate archives education and the broader profession in several ways. It has inspired the notion that archivists must be knowledgeable beyond the skills and tasks that comprise the day-to-day operations of archives repositories. Individual and institutional actions are influenced by larger social forces, and as such a theoretical comprehension of these forces is necessary to examine how and why things are done over time.Social theory, whether grounded in existing archival theory or borrowed from outside disciplines, is necessary to provide archives professionals a keener sense of what is happening around them. The presentation will discuss the incorporation of social theory into archives education and what this has meant for the broader archives profession. Based on a review of relevant archives education literature and a survey of archives educators, the author suggests that social theory has had a significant but subtle impact on archives education but will become increasingly necessary for the profession to deal with evolving social, political, and technological realities.
-</t>
   </si>
   <si>
     <t>Although the task of establishing and maintaining relationships with external organizations for purposes of providing field experience or internships for masters students may fall to junior faculty, it can serve as an opportunity for collaborative research. While the host site may see the field experience as an inexpensive means to achieve a particular institutional goal, for which they lack the internal resources, or to supplement the ongoing work of providing access to collections, you and your students could take advantage of this invitation to explore the intellectual structure of the institution, especially the creation and organization of its records.
@@ -630,24 +537,10 @@
 -Designing appropriate evaluations</t>
   </si>
   <si>
-    <t>My research investigates the maintaining behavior of personal information, by examining the influence of sense of self on conscious decisions to maintaining digital objects n personal computers. An individual’s sense of self may motivate how or why individuals maintain one digital object over another digital object. Sense of self may also be related to an individual’s concept of the “importance” of an item.
-Information about individual’s maintaining behavior can be of use to developers of personal information management tools and archivists who practice pre-custodial intervention in association with personal papers collections. To investigate this area, I have developed a two-part study involving the use of q methodology, a sorting activity and qualitative interviews. In my presentation I will discuss why I chose these methods to conduct my research and how previous research in social psychology, compulsive hoarding and the study of possession has influenced the design of my study.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is a direct relationship between quality of life and our ability to maintain a coherent sense of self. In light of evidence that memory loss, particularly in the aged, will become more commonplace, the issues raised are not only for the potential sufferers but also to the family, friends and extended carers who will be responsible for their wellbeing.
-Findings suggest that there are a number of common themes emerging across multidisciplinary research particularly in regard to the nature of memory, and the triggers which constitute the record. The convergence of these findings creates the opportunity for the archival profession to contribute therapeutically in the area of health and aging by applying contemporary and evolving theories to the creation of
-the personal archive.
-The Personal Archive is an electronic register of objects, stories and images which represents autobiographical memories. Each entry in the archive is annotated with important information that provides context for the documented people, events and places. </t>
-  </si>
-  <si>
     <t>This paper examines the contribution of the archival field to the literature of recordkeeping behavior. The study of recordkeeping, the process of individuals and institutions creating, managing, and using records to support their activities, is a rich and diverse field of research. Studies have examined recordkeeping practices in a wide variety of industries, particularly healthcare, law enforcement, and other fields that are characterized by records-intensive work. Research has come from a variety of disciplines, including anthropology, history, organizational behavior, human-computer interaction, and archival science. This paper explores patterns and trends in this area of study, focusing in particular on the research produced by archival educators and practitioners.</t>
   </si>
   <si>
     <t>The proposed presentation will examine Electronic Health Record (EHR) systems through both an empirical study of the implementation of an EHR system at a community health clinic and a conceptual analysis that interrogates claims made for and about EHRs. This conceptual analysis brings together three conventionally separate ways of understanding electronic records: systems design, sociotechnical analysis and archival science, in hopes of arriving at a vision of EHR systems that takes into account the questions of justice and equity in addition to the dominant mandate for technical efficiency.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Building off the preliminary research I presented at AERI 2009, this paper draws on the ongoing human rights tribunal in Cambodia to argue that archives play a significant role in fostering three elements essential to Cambodia’s recovery: accountability, truth, and memory. First, archives have an enduring power to hold the Khmer Rouge regime accountable because they were the catalyst for an ongoing international human rights tribunal, as shown by the relentless activism of the archive’s director, international efforts to preserve Khmer Rouge records, and the correlation between indictments and documentary evidence. Secondly, this paper posits that archives make a significant contribution to the establishment of truth because they have epistemological validity over the testimony of survivors, as seen repeatedly throughout the tribunal. Finally, this paper argues that the archive is succeeding in constructing memory of the Khmer Rouge era because it is forcing Cambodia to deal with its uncomfortable past by giving voice to survivors, creating textbooks, and conducting outreach. This paper is rooted in the field of archival studies within the discipline of library and information science, but draws on history, Cambodian studies, and legal studies. Employing transcripts of the ongoing tribunal, NGO reports, and newsletters as primary sources, the paper argues that, while archives have been successful in holding the Khmer Rouge accountable, establishing truth, and creating memory, only a tribunal can administer justice.
-</t>
   </si>
   <si>
     <t xml:space="preserve">All records are potentially valuable sources of community knowledge, such as the land, the people, oral knowledge and memory, archaeology, paper records, multi-media, digital collections, community and organisational documents, photographs, and visual and performance art. Collectively they are a community archive. But how does the community hold onto that knowledge and make it accessible? What are the frameworks, processes and protocols? What relationships exist between a community archive and other archival collections and institutions?
@@ -667,15 +560,6 @@
     <t>Archivists have traditionally had a mandate to collect, organize and classify records, often late in the process after they have been delivered to the archives. This is reflected in organizational structures, where the archivists have rarely had a strategic management role although in Sweden there is clear and universally known legislation defining archives and the archival responsibilities of public organizations. With the transition from paper-based to electronic records, information can now be used strategically, for example through e-services. The challenge for the profession is to raise awareness that we are active strategists and information managers. My research motive is to establish if and how this change affects the records and archives professionals and the archive as a function. I intend to conduct a quantitative study on municipalities regarding the strategic planning of digital archives with a deeper qualitative focus on organizations that have undertaken organizational change when implementing electronic recordkeeping systems.</t>
   </si>
   <si>
-    <t>Museums worldwide are wrestling with questions about the representation of indigenous peoples in museum exhibits. Who decides how a culture is portrayed? Does context matter? What happens when members of the community speak out against museum exhibits? U-M Exhibit Museum of Natural History director Amy Harris will discuss these questions in telling the story of reaching the decision to remove 14 immensely popular — and largely accurate — miniature dioramas of Native American cultures from her museum in a process that unfolded over nearly 10 years.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“L’ archivistique est-elle une science ou un art?” was the question put by Bruno Delmas (France) at the conference “Archival science on the threshold of the year 2000” held in 1990 at the University of Macerata (Italy), and he repeated the question in the first issue of the journal Archival Science, published in 2001.[1] However, while his original question can be translated as I have done in the title of this presentation, Delmas used in the Archival Science article a different term, asking “Is archiving a science or an art?”. The difference is not just a slip of the pen while translating: the contrast reflects the distinction between archivage (archiving) and archivistique (archivistics or archival science) which through time and in different places are being interpreted differently. I propose to discuss this theme by exploring research in archiving and archivistics within the European context.
-I further argue that such research has to be interdisciplinary. In contexts which are always changing in time-space, the record is continuously mediated and activated. To understand that agency, archivistics needs to ally with and be challenged by other disciplines who study human perception, communication, and behavior. Scholars of archivistics are learning (or relearning) from anthropologists, sociologists, psychologists, philosophers, cultural and literary theorists: to look up from the record and through the record, looking beyond – and questioning - its boundaries, in new perspectives seeing (to use Tom Nesmith’s magnificent expression) with the archive, trying to read its tacit narratives of power and knowledge.
-After (or perhaps entwined with) my presentation I will engage the other plenary speakers Margaret Hedstrom, Cal Lee, and Lorraine Eakin-Richards and the audience in a discussion of the topic of archival research and interdisciplinarity.
-[1] Bruno Delmas, ‘Bilan et perspective de l’archivistique française au seuil du troisième millénaire’, in: Oddo Bucci (ed.), Archival science on the threshold of the year 2000 (University of Macerata, Macerata 1992) 81-109; Bruno Delmas, ‘Archival Science facing the Information Society’, Archival Science 1 (2001) 25-37. </t>
-  </si>
-  <si>
     <t>Archival Science and Domain Knowledge: An Interdisciplinary Epistemology</t>
   </si>
   <si>
@@ -739,32 +623,6 @@
     <t>Holding Gunditjmara Knowledge: Community and Records Working Together</t>
   </si>
   <si>
-    <t xml:space="preserve">http://aeri.website/aeri-2010-conference-schedule/
-https://web.archive.org/web/20100926070850/http://aeri2010.wetpaint.com:80/page/Archival+Education 
-This is an archived version of the original AERI 2010 Wiki, captured Sep 26, 2010.
-</t>
-  </si>
-  <si>
-    <t>http://aeri.website/aeri-2010-conference-schedule/
-https://web.archive.org/web/20100926070850/http://aeri2010.wetpaint.com:80/page/Archival+Education 
-This is an archived version of the original AERI 2010 Wiki, captured Sep 26, 2010.</t>
-  </si>
-  <si>
-    <t>http://aeri.website/aeri-2010-conference-schedule/
-https://web.archive.org/web/20100926065024/http://aeri2010.wetpaint.com:80/page/Renegotiating+Principles+and+Practices
-Page was captured and archived on Wayback Machine Sep 26, 2010.</t>
-  </si>
-  <si>
-    <t>http://aeri.website/aeri-2010-conference-schedule/
-https://web.archive.org/web/20100926065024/http://aeri2010.wetpaint.com:80/page/Renegotiating+Principles+and+Practices
-Page was captured and archived on Wayback Machine Sep 26, 2010</t>
-  </si>
-  <si>
-    <t>http://aeri.website/aeri-2010-conference-schedule/
-https://web.archive.org/web/20100926062300/http://aeri2010.wetpaint.com:80/page/Communities+of+records
-Page captured and archived on Sep 26, 2010</t>
-  </si>
-  <si>
     <t>Marginal Evidence: Towards an Articulation of Postcoloniality in Archival Theory</t>
   </si>
   <si>
@@ -784,10 +642,6 @@
   </si>
   <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>http://aeri.website/aeri-2010-conference-schedule/;https://web.archive.org/web/20100818065147/http://aeri2010.wetpaint.com:80/page/Plenaries
-Archived website captured on Aug 18, 2010, accessed via Wayback Machine</t>
   </si>
   <si>
     <t>http://aeri.website/aeri-2010-conference-schedule/; https://aeri.gseis.ucla.edu/Archiving%20the%20Performance%20_%20Performing%20the%20Archive%20-%20AERI%202010.pdf</t>
@@ -883,9 +737,6 @@
     <t>"We Think, Not I Think": Implications of User Participation for Archival Theory and Practice</t>
   </si>
   <si>
-    <t xml:space="preserve">Recent developments in web technologies and social software parallel a cultural shift which challenges the authority of the professional. Despite much argument between advocates of the 'crowd' and the 'expert', there is little understanding of the potential impact of user-generated content upon archival theory and practice.This presentation will outline the starting points for my research: · To examine the utility, usage and broader value of user participation projects in archives, and to identify those factors which lead to their success or otherwise. Are such initiatives scalable to small or independent archives as well as larger, national institutions? · To investigate the impact of collaborative methodologies on professionalism and professional practice, and to consider how user contributions might be incorporated within ISAD(G) · To examine the extent to which these collaborative developments are new phenomena, or whether they are similar to previous 'analogue' attempts to engage with wider communities </t>
-  </si>
-  <si>
     <t>University of Michigan; University of Michigan</t>
   </si>
   <si>
@@ -913,7 +764,199 @@
     <t>University of South Carolina; Mid Sweden University</t>
   </si>
   <si>
-    <t xml:space="preserve">As distance learning transforms academia, archival educators are exploring new methods for educating the next generation of archivists. While the distance environment provides opportunities for flexible and innovative pedagogy, the process of developing and delivering effective distance learning courses is not intuitive, but requires ongoing engagement, experimentation, and evaluation. This workshop will offer strategies for designing distance courses, navigating the logistics of distance course management, and building distance learning communities. 
+    <t>ISAD(G) and the development of archival descriptive standard in Korea</t>
+  </si>
+  <si>
+    <t>Investigating Individuals’ Conscious Decisions to Maintain Digital Possessions</t>
+  </si>
+  <si>
+    <t>Contributions from the Archival Profession to the Literature of Recordkeeping Behavior</t>
+  </si>
+  <si>
+    <t>Joanne Mihelcic</t>
+  </si>
+  <si>
+    <t>Electronic Health Records and the Health Information Technology for Economic and Clinical Health (HITECH) Act</t>
+  </si>
+  <si>
+    <t>Michelle Caswell</t>
+  </si>
+  <si>
+    <t>University of Wisconsin</t>
+  </si>
+  <si>
+    <t>Issues Regarding Records Management in Enterprises and Organizations in the Public Sector</t>
+  </si>
+  <si>
+    <t>The objectives of the study is 1) to investigate the current problems and employee perspectives regarding health records management and system implementation at one medium-sized dental school and affiliated clinics; and 2) to determine a strategy to ensure reliable records management practices at the clinics. To examine the dental clinics’ recordkeeping practices, the research team conducted face-to-face interviews and reviewed current systems. The research team also spoke to a representative of the software application company. The findings of the study show that the current practice at the dental clinics has many issues preventing efficient EHR management, such as successful transition, technical support and equipment, effective communication, training, sharing visions and knowledge. To solve indentified challenges, we suggest a strategy to upgrade the system and merge databases into a central one. We also suggest three scenarios to figure out the best implementation strategy for the clinics.</t>
+  </si>
+  <si>
+    <t>Proscovia Svärd</t>
+  </si>
+  <si>
+    <t>Government agencies have been characterized as bureaucratic organizations that are rigid and slow in reacting to changing organizational environments. However, this is slowly changing and municipalities are now required to re-engineer their work processes in order to elevate efficiency as the demand for quality services from the citizens increases. Through web based technologies information is being disseminated to the citizens and a two-way communication flow has been established. The management of information is crucial to this process. Records Management (RM) is the information management construct that has been employed to manage public information but now, Enterprise Content Management (ECM) is being promoted as the panacea to effective information management. Sundsvall and Härnösand municipalities in Sweden will provide case studies for this research project that will illuminate the challenges faced by local government in this shifting environment.</t>
+  </si>
+  <si>
+    <t>Professional Challenges in Electronic Recordkeeping in Sweden</t>
+  </si>
+  <si>
+    <t>The Native American Dioramas and the Exhibit Museum</t>
+  </si>
+  <si>
+    <t>University of Denver</t>
+  </si>
+  <si>
+    <t>University of Texas; University of Texas; University of Texas</t>
+  </si>
+  <si>
+    <t>Joel Blanco-Rivera</t>
+  </si>
+  <si>
+    <t>Kaitlin Costello; Jason Priem</t>
+  </si>
+  <si>
+    <t>University of North Carolina; [No institution in program.]</t>
+  </si>
+  <si>
+    <t>Amy Greer</t>
+  </si>
+  <si>
+    <t>Current Trends in Archival Education Related to Diversity</t>
+  </si>
+  <si>
+    <t>Because I am early in my program at Simmons, this upcoming semester will be my first opportunity to begin my own research. Admittedly, I cannot yet provide the specific research question and methodology for my poster in June. By the end of this semester, however, I will have created a researchable question, collected data from a small sampling, and completed an early draft of a research paper. All of this will be easily translated to a poster. For now, I will provide you with my topic of interest and my initial plans for investigation.
+Following Elizabeth Atkins’ presidential address at the 2007 SAA meeting, I conducted a literature review to explore if and how archivists were grappling with and writing about issues of diversity in the archives field. I wanted to understand why the field struggles to diversify. As of now, I have located few articles in the archival field on the topic, beyond the literature tangentially related such as material on the community archives movement, post-colonial studies in the archives, and pluralizing archival education. I see an opportunity to delve into the issues around diversity and the archival profession. In doing this research, I hope to help the field think more effectively about ways it can attract a people from a broader population, more accurately representing to population we seek to serve.
+The questions I am hoping to engage with include: What causes the field of archives to remain largely homogenous? How do we determine if racism and discrimination exist in our field? How do we quantify it? Where do we look for examples? What systems in our organizations do we first explore as possible sites of such racism and/or discrimination? Should we discover its existence, what do we do about it? If there does not appear to be systemic discrimination in the field, what other reasons might there be for the continued homogeneity? To gather appropriate data for these questions, I hope to utilize demographic studies of students who drop out of LIS and Archives programs, interviews, surveys, and focus groups.
+Please do not mistake my lack of clarity for lack of engagement. The course I am taking this semester, Research Methods, is providing me with great insight and direction in developing my research, especially for a student coming over from the humanities. By this summer, I plan to have established my research plan for the next few years, and to have material ready for critique and review.</t>
+  </si>
+  <si>
+    <t>Laura Helton</t>
+  </si>
+  <si>
+    <t>Discussing the Archive: Ideas, Practices, Institutions</t>
+  </si>
+  <si>
+    <t>This poster will recap and analyze a recent event series at NYU entitled “Discussing the Archive: Ideas, Practices, Institutions,” co-curated by Laura Helton, Dylan Yeats, and Peter Wosh and running from February through April 2010. This series examines and contributes to a growing interdisciplinary body of work that draws on “the archive” as a lens for exploring questions of history, memory, evidence, and representation. The number of recent archives-themed courses, conferences, and books offered outside of the archival profession demonstrates the intensity of current interest in archival studies across the humanities. What has not been fully realized, however, is an organized effort to explicitly examine the how these approaches to “the archive” converge and diverge. This series attempts to address that gap.
+Each session is organized around a conceptual theme designed to provoke conversation and debate about how we think, use, and build archives. The five session titles are: Problems and Productivities of Archival Silence: Engaging with Archives on Slavery and Colonialism; Archival Materialities: Text, Image, Sound, Object; Collecting and Collectivities: Social Movements and Archive-Building; Embodied Archives; and Archives and the Security State: Implications for Archival Research. (Full schedule: http://aphdigital.org/more/discussing-the-archive/)
+While each discipline frames these issues differently, our shared use of the term “archive” offers a productive opportunity to think together across analytical, institutional, and professional boundaries. In fact, the versatility of an archival vocabulary invites precisely this sort of collaborative self-reflection as we look at how archives literally and conceptually shape our practices. A cross-disciplinary framework allows us to interpret “the archive” as simultaneously referring to places, institutions, collections, traces, methodologies, information networks, and theories of knowledge production. To examine the recent surge of attention to “the archive,” this series brings together the strength of existing practices in the archival profession, a tradition of archival research across the humanities, and critical theories of the archive in literary and cultural studies. This poster will describe some of the major questions and observations arising out of the series.</t>
+  </si>
+  <si>
+    <t>Richard Hollinger</t>
+  </si>
+  <si>
+    <t>Use and Retention of Emails in the Workplace</t>
+  </si>
+  <si>
+    <t>The poster will present research results pertaining to the use and retention of email from of a survey of 400 workers and from the examination of paper and digital files kept by employees in five organizations. The poster will illustrate the types of communication for which emails are preferred; how long emails of different types of are retained; how they are retained; and for what purpose they are used after retention. It will also explain how these patterns of retention and use deviate from those for other types of documents. It will also explore how the type of organization and the professional rank of the individual worker shape patterns of email use and retention.</t>
+  </si>
+  <si>
+    <t>Pendse Liladhar Ramchandra</t>
+  </si>
+  <si>
+    <t>Preserving the Portuguese and French Colonial Periodical Legacies in post-Colonial India and the Library as an archival repository</t>
+  </si>
+  <si>
+    <t>The poster will highlight and discuss an ongoing cooperative project of French language periodicals preservation project between the UCLA Information Studies department and an archival repository in India. As a co-principal investigator, I work closely with Dr. Anne Gilliland. The poster will describe my previous project a web based database of the periodicals of Portuguese India.</t>
+  </si>
+  <si>
+    <t>Kathryn Pierce</t>
+  </si>
+  <si>
+    <t>Documenting Architectural Practice: An Initial Investigation of Digital Project Records</t>
+  </si>
+  <si>
+    <t>Architectural firms have been using computers as an integral part of the design process for the past 30 to 40 years. The records generated by firms are only now being donated to archives for preservation. In the past few years, investigators have engaged in large-scale projects, involving numerous case studies and extensive surveys. Studies have focused on emerging record types that are particularly problematic, such as 3D CAD models. Building on the work established by these researchers, I endeavored to study the architectural project records of a local firm in Austin, Texas with an eye towards the long-term preservation of the digital records the firm created over the past few decades.
+In this poster, I will lay the groundwork for understanding why this research is necessary. As background information, I will indentify the range of architectural project records. I will then present the beginning efforts of a case study I conducted at an architectural firm. I interviewed members of the firm, including architects and office management staff to determine what types of digital records are created in the process of their work. I examined their archives or records management system to access older digital records.
+Through the interviews, I determined which records best document the architectural practice, according to members of the firm. I identified characteristics of these records that will be significant for archiving and preserving the materials. In the present study, I have focused on project records, as these materials differentiate an architectural firm from other businesses and provide a variety of challenges that are not necessarily addressed in other studies on born-digital records.
+This study marks the beginning of a larger research project to thoroughly document an architectural practice. My intention is to follow up with further research to determine how disparate record types, both analog and digital, can be linked together to create packages of information about a single project and the architectural practice. In my research, I sought an opportunity to collaborate with record creators, in this case architects and firm staff members, to continue to understand how digital records are used and also to streamline the process of archiving the materials. This study contributes to the scholarly discourse by attempting to define the broad issues of architectural records preservation and locate solutions to a practical problem within the field by applying archival appraisal theory to examine the issue within a research context.</t>
+  </si>
+  <si>
+    <t>The Feasibility and Value of Utilizing User Studies in Archival Appraisal Practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This poster presents part of the basic results of my dissertation research on the relationship between archival appraisal practice and user studies in U.S. state archives and records management programs. It shows the results of investigation into U.S. state archivists’ and records managers’ attitudes toward the feasibility and value of user studies in appraisal practice. </t>
+  </si>
+  <si>
+    <t>Heather Soyka</t>
+  </si>
+  <si>
+    <t>"Cry 'Havoc!" and let slip the blogs of war": Capturing community, memory, and conflict in the digital age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In my current research project, I have focused upon a particular subset of blogs and diaries as historical evidence. I plan to contribute a research poster that discusses comparisons between diaries and blogs of military and wartime memory, and the implications of the changing nature of the form on archives and recordkeeping practices, and as evidence. </t>
+  </si>
+  <si>
+    <t>Joanna Steele</t>
+  </si>
+  <si>
+    <t>The University of Michigan's Ardis Press Collection: A Story of Literary Resistance</t>
+  </si>
+  <si>
+    <t>This poster will visually display the history of Ardis Press, a small publisher based in Ann Arbor, Michigan, that gained an international reputation in the 1970s and 80s for its publication of Russian literary works banned in the Soviet Union. An archive without borders, this story captures an act of defiance to Soviet power by the Metropol group of writers in collaboration across borders with an American publisher. The story of Ardis speaks to the political power of writing and the political act of publishing, both embodied in the right of freedom of expression. This essential right was reflected in the more recent work of fallen human rights activists Anna Politkovskaya and Natalia Estemirova and fuels current efforts by archivists to support human rights documentation. This poster will reconstruct for viewers the memory of Ardis through analysis of the cultural response to its publications through the lens of today's ongoing struggle for human rights in Russia.</t>
+  </si>
+  <si>
+    <t>Vivian Wong</t>
+  </si>
+  <si>
+    <t>The Chinatown Library Digital Archive Project: A Story of Community, Memory, and Technology</t>
+  </si>
+  <si>
+    <t>This poster traces the evolution and application of the concept of trusted digital repositories from the landmark 1996 Preserving Digital Information, through the work of multiple task forces to an ISO standard and the accompanying guidelines for auditors, anticipated in the 2010-2011 timeframe. It will hughlight the major criteria of the draft standard.</t>
+  </si>
+  <si>
+    <t>University of Amsterdam</t>
+  </si>
+  <si>
+    <t>New York University</t>
+  </si>
+  <si>
+    <t>Carol Brock; Katie Pierce; April Norris</t>
+  </si>
+  <si>
+    <t>Fiorella Foscarini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Ketelaar; Margaret Hedstrom; Cal Lee; Lori Eakin-Richards </t>
+  </si>
+  <si>
+    <t>Exploring the Relationship between Archival Appraisal Practice and User Studies in U.S. State Archives and Records Management Programs</t>
+  </si>
+  <si>
+    <t>Finding my people: Youtube and the intimate archive</t>
+  </si>
+  <si>
+    <t>Towards the Archival Multiverse: The Koorie Archiving System</t>
+  </si>
+  <si>
+    <t>No Gun Ri Archives: Exploring How Archives Can Use Social Media to Encapsulate Collective Memory</t>
+  </si>
+  <si>
+    <t>Implementing PREMIS: A Case Study of the Florida Digital Archive</t>
+  </si>
+  <si>
+    <t>Reaping Rich Harvests: Opportunities in Implementing EAC</t>
+  </si>
+  <si>
+    <t>"I can leave a record of me": Scholars' attitudes towards archiving their tweets</t>
+  </si>
+  <si>
+    <t>This workshop offers an in-depth case study of archival resources crucial to heritage preservation, and the relationship of the indigenous community to whom those resources are heritage. Through a journey from discovery of resources to reincorporation, this case offers cautionary notes for archival policies while simultaneously affirming a fundamental mission of archives—to preserve traces of the past for the future.
+The case study involves Native Hawaiians and archival sources central to the traditional practice of hula performance. Poetic texts are the basis for choreography and musical presentation. Through the 19th-century experience of Christian suppression of hula, then colonial education policies that contributed to precipitous decline of the Hawaiian language, the community of skilled hula practitioners became separated from reams of poetic repertoire recorded in unpublished sources, then archived in institutions that, for many decades, were not welcoming to researchers who were not engaged in academic (usually post-graduate level) research. A cultural renaissance in the 1970s, and a language revitalization movement launched in the 1980s, secured renewed interest in hula practices of traditional performance styles that had lain dormant for decades, overshadowed by a market for tourist entertainment instead. Despite the resurgence in traditional performance styles, however, practitioners were still separated from archival resources.
+My research integrates ethnographic documenting of contemporary practices and archival research on repertoire. As an academic, I enjoyed unchallenged access to archival resources. In collaboration with practitioners, we have been staging contemporary settings of archival repertoire, affording me an opportunity to reflect on what it means to experience the contents of poetic repertoire as animated embodied practice. Central to this analysis is the analysis of how archival policies have impacted access, consumption, and presentation.
+In this workshop, I will offer a “guided tour” through processes of archival research, resurrecting repertoire back to performance, and reflecting on past, present and future relationships between indigenous communities and institutions holding resources crucial to a community’s heritage. The workshop has an experiential component—attendees will learn a seated hula, in order to gain an first-hand perspective on why hula is central to Hawaiian culture.</t>
+  </si>
+  <si>
+    <t>Recent developments in web technologies and social software parallel a cultural shift which challenges the authority of the professional. Despite much argument between advocates of the 'crowd' and the 'expert', there is little understanding of the potential impact of user-generated content upon archival theory and practice.This presentation will outline the starting points for my research: 
+· To examine the utility, usage and broader value of user participation projects in archives, and to identify those factors which lead to their success or otherwise. Are such initiatives scalable to small or independent archives as well as larger, national institutions? 
+· To investigate the impact of collaborative methodologies on professionalism and professional practice, and to consider how user contributions might be incorporated within ISAD(G) 
+· To examine the extent to which these collaborative developments are new phenomena, or whether they are similar to previous 'analogue' attempts to engage with wider communities.</t>
+  </si>
+  <si>
+    <t>Scientific data, like other kinds of records, are the by-products of work that can function as evidence to validate findings and make claims. An important way in which archives ensure that records can serve as evidence is by documenting the link between the records and their context of creation. Science also depends on the connection that scientists can make between data and the circumstances under which the data were collected. This has traditionally been accomplished through journal articles.
+As science becomes more data intensive and means of easily sharing data become more accessible, there is increasing emphasis on building shared repositories of scientific data. And yet, it can be difficult to provide an appropriate level of contextual information for the data in such repositories. In this paper, based on a case study of a Materials Science lab group in a major research university, we examine how the daily data practices of scientists might be an aid or impediment to others using their data as evidence in their own studies.</t>
+  </si>
+  <si>
+    <t>As distance learning transforms academia, archival educators are exploring new methods for educating the next generation of archivists. While the distance environment provides opportunities for flexible and innovative pedagogy, the process of developing and delivering effective distance learning courses is not intuitive, but requires ongoing engagement, experimentation, and evaluation. This workshop will offer strategies for designing distance courses, navigating the logistics of distance course management, and building distance learning communities. 
 Issues to be addressed will include the integration of online and onsite students into class discussions, techniques for designing assignments which involve student presentations and related discussions, and the mechanics of group work combining both online and onsite students. Advance preparation: students who are presently teaching should bring examples of their assignments as a basis for discussion on how they could be changed to work effectively in an online class.
 Suggested pre-readings
 Anderson, K. (2005) 'Discussions in Developing online learning communities for student information professionals'. TILC@ECU: Proceedings of the Inaugural Transforming Information and Learning Conference: Information, Libraries and eLearning, 30 September - 1 October, Edith Cowan University, Mount Lawley Campus. http://conferences.scis.ecu.edu.au/TILC2007/tilc-2005.php or http://conferences.scis.ecu.edu.au/TILC2007/documents/2005/TILC%202005%20Karen%20Anderson.pdf
@@ -923,72 +966,111 @@
 Other useful resources
 Ko, Susan and Rossen, Steve. Teaching Online: A Practical Guide. Boston: Houghton Mifflin Company, 2001.
 Palloff, Rena M. and Pratt, Keith. Lessons from the Cyberspace Classroom: The Realities of Online Teaching. San Francisco: Jossey-Bass, 2001.
-Salmon, Gilly. E-tivities (2002). Key ideas from this book are discussed at http://www.atimod.com/e-tivities/intro.shtml. Of particular interest are her 5-stage model of development of e-learners at: http://www.atimod.com/e-tivities/5stage.shtml and the extracts from chapter 4 on key principles for building e-tivities and on building reflection opportunities into online work: http://www.atimod.com/e-tivities/extracts.shtml.
+Salmon, Gilly. E-tivities (2002). Key ideas from this book are discussed at http://www.atimod.com/e-tivities/intro.shtml. Of particular interest are her 5-stage model of development of e-learners at: http://www.atimod.com/e-tivities/5stage.shtml and the extracts from chapter 4 on key principles for building e-tivities and on building reflection opportunities into online work: http://www.atimod.com/e-tivities/extracts.shtml.</t>
+  </si>
+  <si>
+    <t>This year's workshop builds on and extends the key concepts –diversity, pluralization, cultural sensitivity, community—discussed in part 1. This workshop will review arguments for developing more inclusive approaches to teaching Archival Studies. It will identify curricular and pedagogical strategies for teaching archival curricula in culturally sensitive and culturally relevant ways. It will also discuss the conceptualization of new courses and pedagogical methods specifically designed to meet the needs of diverse communities.</t>
+  </si>
+  <si>
+    <t>Social theory is the use of theoretical frameworks to interpret social structures and phenomena. It has become more important to the archives discipline simply because the nature of records, their creation, and circumstances of their existence are increasingly complex. Social theory has impacted graduate archives education and the broader profession in several ways. It has inspired the notion that archivists must be knowledgeable beyond the skills and tasks that comprise the day-to-day operations of archives repositories. Individual and institutional actions are influenced by larger social forces, and as such a theoretical comprehension of these forces is necessary to examine how and why things are done over time. Social theory, whether grounded in existing archival theory or borrowed from outside disciplines, is necessary to provide archives professionals a keener sense of what is happening around them. The presentation will discuss the incorporation of social theory into archives education and what this has meant for the broader archives profession. Based on a review of relevant archives education literature and a survey of archives educators, the author suggests that social theory has had a significant but subtle impact on archives education but will become increasingly necessary for the profession to deal with evolving social, political, and technological realities.</t>
+  </si>
+  <si>
+    <t>My research investigates the maintaining behavior of personal information, by examining the influence of sense of self on conscious decisions to maintaining digital objects n personal computers. An individual’s sense of self may motivate how or why individuals maintain one digital object over another digital object. Sense of self may also be related to an individual’s concept of the “importance” of an item.
+Information about individual’s maintaining behavior can be of use to developers of personal information management tools and archivists who practice pre-custodial intervention in association with personal papers collections. To investigate this area, I have developed a two-part study involving the use of q methodology, a sorting activity and qualitative interviews. In my presentation I will discuss why I chose these methods to conduct my research and how previous research in social psychology, compulsive hoarding and the study of possession has influenced the design of my study.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a direct relationship between quality of life and our ability to maintain a coherent sense of self. In light of evidence that memory loss, particularly in the aged, will become more commonplace, the issues raised are not only for the potential sufferers but also to the family, friends and extended carers who will be responsible for their wellbeing.
+Findings suggest that there are a number of common themes emerging across multidisciplinary research particularly in regard to the nature of memory, and the triggers which constitute the record. The convergence of these findings creates the opportunity for the archival profession to contribute therapeutically in the area of health and aging by applying contemporary and evolving theories to the creation of the personal archive.
+The Personal Archive is an electronic register of objects, stories and images which represents autobiographical memories. Each entry in the archive is annotated with important information that provides context for the documented people, events and places. </t>
+  </si>
+  <si>
+    <t>Building off the preliminary research I presented at AERI 2009, this paper draws on the ongoing human rights tribunal in Cambodia to argue that archives play a significant role in fostering three elements essential to Cambodia’s recovery: accountability, truth, and memory. First, archives have an enduring power to hold the Khmer Rouge regime accountable because they were the catalyst for an ongoing international human rights tribunal, as shown by the relentless activism of the archive’s director, international efforts to preserve Khmer Rouge records, and the correlation between indictments and documentary evidence. Secondly, this paper posits that archives make a significant contribution to the establishment of truth because they have epistemological validity over the testimony of survivors, as seen repeatedly throughout the tribunal. Finally, this paper argues that the archive is succeeding in constructing memory of the Khmer Rouge era because it is forcing Cambodia to deal with its uncomfortable past by giving voice to survivors, creating textbooks, and conducting outreach. This paper is rooted in the field of archival studies within the discipline of library and information science, but draws on history, Cambodian studies, and legal studies. Employing transcripts of the ongoing tribunal, NGO reports, and newsletters as primary sources, the paper argues that, while archives have been successful in holding the Khmer Rouge accountable, establishing truth, and creating memory, only a tribunal can administer justice.</t>
+  </si>
+  <si>
+    <t>One of the main issues I investigated in my doctoral dissertation is the influence exercised by dissimilar organizational cultures on the ways in which both the purpose of classification and the concept of business function are understood by developers and users of function-based records classification systems in organizations. Having observed that the meanings of records classification and function are not adequately described in the records management and archival literature, I formulated the research hypothesis that the characteristics of existing classification systems as well as the enactment modes of such systems by their users are specific to each organizational context.This presentation will provide an account of the methodology I employed and some of the findings of the multiple-case research I conducted in four selected Central Banks in Europe and North America.</t>
+  </si>
+  <si>
+    <t>Museums worldwide are wrestling with questions about the representation of indigenous peoples in museum exhibits. Who decides how a culture is portrayed? Does context matter? What happens when members of the community speak out against museum exhibits? U-M Exhibit Museum of Natural History director Amy Harris will discuss these questions in telling the story of reaching the decision to remove 14 immensely popular—and largely accurate—miniature dioramas of Native American cultures from her museum in a process that unfolded over nearly 10 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“L’ archivistique est-elle une science ou un art?” was the question put by Bruno Delmas (France) at the conference “Archival science on the threshold of the year 2000” held in 1990 at the University of Macerata (Italy), and he repeated the question in the first issue of the journal Archival Science, published in 2001.[1] However, while his original question can be translated as I have done in the title of this presentation, Delmas used in the Archival Science article a different term, asking “Is archiving a science or an art?”. The difference is not just a slip of the pen while translating: the contrast reflects the distinction between archivage (archiving) and archivistique (archivistics or archival science) which through time and in different places are being interpreted differently. I propose to discuss this theme by exploring research in archiving and archivistics within the European context.
+I further argue that such research has to be interdisciplinary. In contexts which are always changing in time-space, the record is continuously mediated and activated. To understand that agency, archivistics needs to ally with and be challenged by other disciplines who study human perception, communication, and behavior. Scholars of archivistics are learning (or relearning) from anthropologists, sociologists, psychologists, philosophers, cultural and literary theorists: to look up from the record and through the record, looking beyond—and questioning—its boundaries, in new perspectives seeing (to use Tom Nesmith’s magnificent expression) with the archive, trying to read its tacit narratives of power and knowledge.
+After (or perhaps entwined with) my presentation I will engage the other plenary speakers Margaret Hedstrom, Cal Lee, and Lorraine Eakin-Richards and the audience in a discussion of the topic of archival research and interdisciplinarity.
+[1] Bruno Delmas, ‘Bilan et perspective de l’archivistique française au seuil du troisième millénaire’, in: Oddo Bucci (ed.), Archival science on the threshold of the year 2000 (University of Macerata, Macerata 1992) 81-109; Bruno Delmas, ‘Archival Science facing the Information Society’, Archival Science 1 (2001) 25-37. </t>
+  </si>
+  <si>
+    <t>Historically, library and information studies have answered this tenet of “looking ahead to the boundaries of fields” by creating new information and communication systems and technologies (ICTs) to deal with sheer volume and the need for networked access and sharing. Additionally, the cultural role that the archivist plays in “creating” documentation through organization and preservation of knowledge is often left to critical theorists. But little work has been done that addresses the ways in which new conceptualizations of biotechnical objects and electronic documents, may be understood (or speculated) as records. Though there is no shortage of scholarship on how new technologies problematize understandings of “life,” and living in the 20th century, there is a lack of speculation on how, in this case an established cell line or an electronic document, affects or evades basic concepts in archival thinking, theory and practice.
+This poster will feature a study of keywords that examines and interrogates the act and role of theorizing in the archival realm, which continues to be a source of debate in information studies, as it is often maintained that there is little or no theory to be discussed in terms of archival work. In a review of a book that claims as much, Tom Nesmith advocates for a deeper understanding of the critical role that speculation may offer to archival theory despite more normative aspects of an archivist’s work (Nesmith 1999). Though there is a broad base of literature in Library and Information Science (LIS) that has discussed the nature of information in age of biotechnology, this project will discuss how standardized living technologies may guide us through some new ways of archival thinking—which is much needed for present and future university and funding-agency data documentation mandates.
+This project proposes an exploration into the development of theory and speculation in archiving through a biotechnical lens: specifically, how should information scientists and archivists think of theory as it shapes archival ideas, and how do new types of records such as patented cell lines challenge key archival principles (such as ‘the original’ and ‘provenance’) that archivists and scientific records managers have traditionally espoused? This endeavor is twofold in its aim: 1) it asks what are the responsibilities of archivists to think about the theory relating to, and speculate about the nature of new records in specialized knowledge fields, how those records may document life, or new understandings of life; and 2) it attempts to introduce a new terms to the critical vocabulary of archives, understanding that the informational professional’s agency in “creating” documentation of life will be necessarily predicated in and through our theories about life and origin.</t>
+  </si>
+  <si>
+    <t>According to the Archival Census and Education Needs Survey in the U.S. conducted in 2004 (A*CENSUS), of the 4,776 individuals responding to the questions regarding age, almost half were over the age of 50. These baby boom generation archivists, who are now 56, are preparing to retire. Thus, one of the inherent challenges of this coming generational changeover will be to identify "effective methods for transferring the knowledge and values acquired through decades of experience from those in the current generation to those who will take their place."
+My research is in the initial stages and is focusing on finding these effective methods. It is based on the findings of a research project I conducted that examined how experienced reference archivists find information in archival collections and what knowledge and skills they acquire and use for searching. Although the quality, quantity and accessibility of finding aids have improved over the last 30 years such that they currently offer researchers, as well as the succeeding archivists, a set of described elements, they contain only a limited amount of knowledge and skills experienced archivists develop. In fact, the eight archivists studied for this research project, who averaged 22 years experience in the same repository, rarely consulted finding aids. They relied more often on their memory of a variety of facts about collections such as episodic memory of events, spatial memory, knowledge of the competence of other archivists working in the repository, social knowledge of the organization and other tactic skills, such as handwriting recognition. My research questions are: what if any, knowledge management methods and techniques have been developed for transferring this type of knowledge? How successful have they been? How can they be applied in archives?</t>
+  </si>
+  <si>
+    <t>The National Security Archive (NSA) is a non-governmental organization based at The George Washington University in Washington, D.C. This research institution collects and makes available records obtained through the U.S. Freedom of Information Act. The organization is very active in legal battles to assure the opening of secret documents and preservation of government records, participation in congressional hearings on issues related to government secrecy and FOIA, and collaboration with organizations abroad, particularly Latin America. Regarding the latter, the NSA has contributed by providing records and expert testimony to criminal investigations and truth commissions, and assistance to human rights organizations and archives of repression such as the Archive of Terror in Paraguay and the Guatemalan National Police Archives. This contribution underscores the importance of records as sources of accountability for human rights violation during periods of repression and internal conflict. An examination of the involvement of the National Security Archive in Latin America provides an opportunity to further study how records affect the implementation of mechanisms of accountability in countries under transitions from authoritarianism. This research poster will showcase relevant cases in Latin America in which the National Security Archive provided records and assistance. The cases include legal decisions that describe how these records served as evidence and criminal investigations where members of the NSA provided expert testimony on the authenticity of documents.</t>
+  </si>
+  <si>
+    <t>My research poster will explain how Manilatown Archival Project exemplifies why a postcolonial historical, political- economic analysis is important in conducting digital archival work in historically marginalized communities. Manilatown Archival Project is a digital archive situated within the International Hotel (I-Hotel), a Filipino-American community based memory institution that marks a Filipino-American immigrant enclave that once existed on Kearny Street, San Francisco. This archive was set up by activists who were part of the anti-eviction movement. When the financial district's expansion increased land value, this increased the rents, causing Filipino-American businesses and services to move out of the neighborhood. The I-Hotel was the last vestige of this Filipino neighborhood, and the anti-eviction movement emerged to resist the city's favoritism over corporate profits rather than the human rights of people who lived within that community.
+Although the I-Hotel was demolished after the eviction in 1997, it was rebuilt 25 years later due to the continued advocacy of activists. The I-Hotel stands today on Kearny Street as senior housing. On the bottom floor is the Manilatown Center, which houses the digital archives and gallery space. The digital archive's purpose is to preserve the memory of a community that once was there, and to preserve the history of this community's resistance to unjust development policies. Therefore, the archives are not just the photos, texts, oral histories and videos within the digital collection; it is the art gallery that portrays emerging Filipino-American visual artwork, the musical and dance performances, and community events to celebrate or raise awareness on particular issues. Moreover, the network of Filipino and Filipino- American people across the city who continue to advocate for social and economic justice are the "living archives" that preserve the history and legacy of Manilatown. By incorporating culture, body and land as records, they preserve the contextual understanding of the digital archives so that historical education is not about a subject in the past, but has relevance in present day issues.</t>
+  </si>
+  <si>
+    <t>Twitter, which was established in 2006 as a way to communicate in 140 characters or less, is an extremely popular micro- blogging and social networking service used by a variety of people and entities for many purposes, including academics posting about their
+research and teaching activities. Academics are using Twitter to communicate in a wide variety of ways, including finding other academics to collaborate with on projects; sharing citations with others; interacting with students; obtaining feedback on their teaching or presentations; organizing conferences and meetings; and taking notes and participating in backchannel discussions at conferences or other academic events [1]. The tweets of academics have implications for how academia is enacted and shaped in the 21st
+century, particularly with respect to interdisciplinarity; collaboration; definitions and ideas of authorship; bibliometrics and academic impact; and definitions of academic identity and a sense of self. Users can follow or be followed on Twitter; when a user logs in to the site, it displays the 20 most recent posts from the people they follow. There are many third-party services for users to archive their own posts by storing them in the cloud or on their personal computers, but this capability is not built directly into the interface.
+I plan to study whether academics who use Twitter consider their posts or the posts of other academics that they follow to have enduring value. This study is the first in a series of studies designed to address questions surrounding appraisal of web-based interactive
+media. These studies aim to uncover similarities and differences in people’s thoughts about a variety of interactive platforms on the Web. In addition to addressing questions of enduring value, this research also addresses the question of who is responsible for carrying out the activities of selecting posts and making them available for future use. In order to begin answering these questions, I have developed an interview guide for 25-30 semi-structured interviews with academics who use Twitter. The questions for the interview aim to uncover how academics use Twitter; whether they think their posts or the posts that they follow should be preserved for future use; and, if so, who is responsible for the project of capturing, preserving, and making them available.
+A recent article about Twitter as a collaborative tool called for persistent archives of Twitter, suggesting the pressing need for research in the area of archiving this social networking system [2]. This study addresses that need by focusing on a specific population of Twitter users who may consider their posts on Twitter to be of value to future users. This study and the subsequent studies in this series will have implications for a wide variety of future research, including informing best practices for selection and appraisal; building tools and systems for the curation of web-based interactive materials; and understanding communication and collaboration among academics.</t>
+  </si>
+  <si>
+    <t>Central State Hospital in Petersburg, Virginia, is a state mental institution that was founded at its present location in 1882 to specifically provide services for the African-American population after the Civil War. The hospital continues to serve the central Virginia area today. I am part of a grant-funded project to create a digital library based on the early records from the hospital. The first phase of the project will focus on digitizing all pre-1900 materials other than patient records, with the goal of making them publicly available via the Internet. Beginning this summer, I will be indexing and assessing the condition of these records. My poster consists of a literature review and methodology for a study I will conduct during the project on the relationship between privacy and the digital dissemination of historical medical-related records.
+While the Health Insurance Portability and Accountability Act (HIPAA) of 1996 makes it clear what identifiers constitute protected health information, it is less certain how the act’s privacy rule works retroactively for historical records. In particular, it is unknown how HIPAA applies to various materials that are not explicitly patient records, such as photographs, day books, and board minutes. What is considered “private” and what is of “public interest”? In addition to the legal aspects of privacy, this study will address issues of making highly sensitive materials widely available for research and general interest. Central State Hospital was a facility for both voluntary and non-voluntary patients and the poor. Its staff performed and documented controversial medical practices. The range of possible reactions from descendants of former hospital residents upon the opening of the institutional records need to be understood and addressed before the project is completed.
+For my literature review, I will look at court cases that have interpreted HIPAA, Virginia’s records laws, the archival practices of other U.S. mental institutions, and perspectives from the archival community, historical societies, and patient rights groups. The overarching goal of my study is to assess the types of records and the nature of the patient information, and then to make recommendations on privacy considerations for each record category. Such research will be beneficial to other institutions and archivists who seek to provide greater public access to mental health records for the first time.</t>
+  </si>
+  <si>
+    <t>I plan to present a poster on a joint project I conducted with the Inter-University Consortium for Political and Social Research. This project is an effort to gauge the need for a new approach to data stewardship at the University of Michigan, to discover best practices here and elsewhere, and to propose some avenues that we might follow for providing better data support in the future. Additionally, the project will explore data stewardship efforts at other universities and seek to draw conclusions about researchers' current approaches, attitudes and preferences for data stewardship.
+Like other major research universities, the University of Michigan produces and consumes an enormous and growing amount of research data as part of its daily business. The obligations involved in managing that ever-increasing flow of data are a challenge to the University as an institution, as well as to its faculty, staff, and students. They also present opportunities, especially to work better and more efficiently and to protect the data from loss and harm. Examining researcher's current data stewardship practice, what support they would like, and their attitudes toward data stewardship will help determine whether the University needs a new approach to data stewardship at the institutional level. With an increasing push from funding agencies and some publications for researchers to provide access to their data and to guarantee its long-term preservation, it is important to understand how researchers what they are doing with their data and how they think about
+it in order to provide better support services. This study will explore how researchers are managing their data now as well the factors that have shaped that practice and motivate or inhibit changes to that practice. A combination of survey and interview data yielded both qualitative and quantitative data about how researchers are managing their data, what services they might be interested in, and factors that influence their data management practice.
+This poster presents results from this study, including recommendations made to the University of Michigan Provost’s Office and the Office of the Vice-President for Research.</t>
+  </si>
+  <si>
+    <t>How to understand and capture born digital information is the most challenging issue in archival science today. The revolution of digital technologies allows everyone to contribute, communicate, re-invent and etch out spaces for personal identity, community and visual culture. The use of online social media tools, often referred to as Web 2.0, contributes to a rich born digital cultural heritage, however, in archival science, a space and language for these cultural information systems does not exist. Within a history prestigious museum spaces and worship of the cultural artefact, online digital technologies of the everyday are being lost to the ephemeral or umbrella-ed into web archiving.
+Youtube, a vast user-generated repository of digital moving image material, provides an opportunity for scrutiny of the construct and ongoing development of digital information in online spaces and the potential impact on cultural heritage preservation. Identifying Youtube as a website containing moving image ignores the complex information system that contribute to its existence as a space for cultural stories. The actions of the user reveal the process of cultural heritage formation through small stories and personal memory making. This research investigates the user in the Continuum of (born digital) Cultural Heritage.
+The poster I am presenting introduces the methodological approach to this research project. I have developed a methodological model, based on Information Continuum theory, which incorporates sense-making and reflective practice. Developed by Frank Upward, Information Continuum theory presents a paradigm shifting approach to understanding information capture, organisation and pluralisation in digital spaces.
+Using graphic representations, the poster will showcase the model and its application in my own research practice and development of a methodology. The methodological approach encompasses the multiplicity of online social spaces and embraces multidisciplinary and complex research design. In addition, in applying Information Continuum theory so deeply into methodology, the research, in a sense becomes a reflection of itself by embedding and testing the recursive nature of the construction of knowledge. Finally, the potential of the model for future use in archival science research will be explored.</t>
+  </si>
+  <si>
+    <t>This poster will report on recent research looking at use of mobile devices for the consumption of moving image material from libraries and archives. Laptops, cell phones, iPods, and the recently announced iPad all offer users the opportunity to download, view, and use moving images from library and archival collections in a myriad number of ways and settings, making video consumption an anytime, anyplace phenomenon. This research examines the impact that these technologies are having on consumption of moving images, including how users are incorporating moving image material into their own works and circulating these materials in their social networks.
+Research problems addressed include the following questions:
+• How are institutions distributing archival moving image material online (i.e., in what formats, and for what purposes)? 
+• In what contexts and for what purposes are users downloading and using archival moving image materials on mobile devices?
+• Does contextualization (documentation/curation of moving images) affect usage patterns, both in terms of amount of usage and types of usage?
+• For material that has been digitized, do concerns about moving image quality and presentation affect users’ attitudes toward viewing and reuse of archival moving images?</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://web.archive.org/web/20100818065147/http://aeri2010.wetpaint.com:80/page/Plenaries
+Archived website captured on Aug 18, 2010, accessed via Wayback Machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://aeri.website/aeri-2010-conference-schedule/; https://web.archive.org/web/20100926070850/http://aeri2010.wetpaint.com:80/page/Archival+Education 
+This is an archived version of the original AERI 2010 Wiki, captured Sep 26, 2010.
 </t>
   </si>
   <si>
-    <t>Implementing PREMIS: A Case Study of the Florida Digital Archive.</t>
-  </si>
-  <si>
-    <t>ISAD(G) and the development of archival descriptive standard in Korea</t>
-  </si>
-  <si>
-    <t>Investigating Individuals’ Conscious Decisions to Maintain Digital Possessions</t>
-  </si>
-  <si>
-    <t>Contributions from the Archival Profession to the Literature of Recordkeeping Behavior</t>
-  </si>
-  <si>
-    <t>Joanne Mihelcic</t>
-  </si>
-  <si>
-    <t>Electronic Health Records and the Health Information Technology for Economic and Clinical Health (HITECH) Act</t>
-  </si>
-  <si>
-    <t>Michelle Caswell</t>
-  </si>
-  <si>
-    <t>University of Wisconsin</t>
-  </si>
-  <si>
-    <t>Issues Regarding Records Management in Enterprises and Organizations in the Public Sector</t>
-  </si>
-  <si>
-    <t>One of the main issues I investigated in my doctoral dissertation is the influence exercised by dissimilar organizational cultures on the ways in which both the purpose of classification and the concept of business function are understood by
-developers and users of function-based records classification systems in organizations. Having observed that the meanings of records classification and function are not adequately described in the records management and archival literature, I formulated the research hypothesis that the characteristics of existing classification systems as well as the enactment modes of such systems by their users are specific to each organizational context.This presentation will provide an account of the methodology I employed and some of the findings of the multiple-case research I conducted in four selected Central Banks in Europe and North America.</t>
-  </si>
-  <si>
-    <t>The objectives of the study is 1) to investigate the current problems and employee perspectives regarding health records management and system implementation at one medium-sized dental school and affiliated clinics; and 2) to determine a strategy to ensure reliable records management practices at the clinics. To examine the dental clinics’ recordkeeping practices, the research team conducted face-to-face interviews and reviewed current systems. The research team also spoke to a representative of the software application company. The findings of the study show that the current practice at the dental clinics has many issues preventing efficient EHR management, such as successful transition, technical support and equipment, effective communication, training, sharing visions and knowledge. To solve indentified challenges, we suggest a strategy to upgrade the system and merge databases into a central one. We also suggest three scenarios to figure out the best implementation strategy for the clinics.</t>
-  </si>
-  <si>
-    <t>Proscovia Svärd</t>
-  </si>
-  <si>
-    <t>Government agencies have been characterized as bureaucratic organizations that are rigid and slow in reacting to changing organizational environments. However, this is slowly changing and municipalities are now required to re-engineer their work processes in order to elevate efficiency as the demand for quality services from the citizens increases. Through web based technologies information is being disseminated to the citizens and a two-way communication flow has been established. The management of information is crucial to this process. Records Management (RM) is the information management construct that has been employed to manage public information but now, Enterprise Content Management (ECM) is being promoted as the panacea to effective information management. Sundsvall and Härnösand municipalities in Sweden will provide case studies for this research project that will illuminate the challenges faced by local government in this shifting environment.</t>
-  </si>
-  <si>
-    <t>Professional Challenges in Electronic Recordkeeping in Sweden</t>
-  </si>
-  <si>
-    <t>The Native American Dioramas and the Exhibit Museum</t>
-  </si>
-  <si>
-    <t>University of Denver</t>
-  </si>
-  <si>
-    <t>Carol Brock, Katie Pierce; April Norris</t>
-  </si>
-  <si>
-    <t>University of Texas; University of Texas; University of Texas</t>
-  </si>
-  <si>
-    <t>Joel Blanco-Rivera</t>
-  </si>
-  <si>
-    <t>Kaitlin Costello; Jason Priem</t>
-  </si>
-  <si>
-    <t>University of North Carolina; [No institution in program.]</t>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://web.archive.org/web/20100926070850/http://aeri2010.wetpaint.com:80/page/Archival+Education 
+This is an archived version of the original AERI 2010 Wiki, captured Sep 26, 2010.</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://web.archive.org/web/20100926065024/http://aeri2010.wetpaint.com:80/page/Renegotiating+Principles+and+Practices
+Page was captured and archived on Wayback Machine Sep 26, 2010.</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://web.archive.org/web/20100926065024/http://aeri2010.wetpaint.com:80/page/Renegotiating+Principles+and+Practices
+Page was captured and archived on Wayback Machine Sep 26, 2010</t>
+  </si>
+  <si>
+    <t>http://aeri.website/aeri-2010-conference-schedule/; https://web.archive.org/web/20100926062300/http://aeri2010.wetpaint.com:80/page/Communities+of+records
+Page captured and archived on Sep 26, 2010</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1083,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1052,7 +1133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1088,21 +1169,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1112,8 +1180,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1125,12 +1198,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1181,9 +1248,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1193,18 +1257,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1545,23 +1614,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFEFE02-9459-C642-9513-040602B64841}">
-  <dimension ref="A1:I70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.296875" customWidth="1"/>
-    <col min="2" max="5" width="28.69921875" customWidth="1"/>
-    <col min="6" max="6" width="57.09765625" customWidth="1"/>
-    <col min="7" max="8" width="28.69921875" customWidth="1"/>
-    <col min="9" max="9" width="31.09765625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="5" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="57.6640625" customWidth="1"/>
+    <col min="7" max="8" width="28.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1590,7 +1660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="256.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="255" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2010001</v>
       </c>
@@ -1598,28 +1668,28 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="235.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="236" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2010002</v>
       </c>
@@ -1627,7 +1697,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -1636,27 +1706,27 @@
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>159</v>
+        <v>289</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="312" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2010003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -1665,19 +1735,19 @@
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2010004</v>
       </c>
@@ -1685,7 +1755,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -1693,20 +1763,20 @@
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>250</v>
+      <c r="F5" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2010005</v>
       </c>
@@ -1714,36 +1784,36 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2010006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -1752,19 +1822,19 @@
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="156" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2010007</v>
       </c>
@@ -1772,28 +1842,28 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2010008</v>
       </c>
@@ -1801,7 +1871,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>24</v>
@@ -1809,28 +1879,28 @@
       <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>252</v>
+      <c r="F9" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2010009</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>253</v>
+        <v>104</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
@@ -1838,20 +1908,20 @@
       <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>254</v>
+      <c r="F10" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="249.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2010010</v>
       </c>
@@ -1859,7 +1929,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>29</v>
@@ -1868,24 +1938,24 @@
         <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="312" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2010011</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>31</v>
@@ -1894,1008 +1964,1008 @@
         <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>255</v>
+        <v>282</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="234" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="255" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2010012</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2010013</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>259</v>
+      <c r="E14" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>290</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2010014</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="312" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2010015</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>260</v>
+        <v>105</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>226</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>167</v>
+        <v>291</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="356" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2010016</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2010017</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="390" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="404" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2010018</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="218.4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2010019</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="218.4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2010020</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="234" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2010021</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="374.4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="404" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2010022</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>263</v>
+        <v>182</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>229</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2010023</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>264</v>
+        <v>283</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2010024</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="280.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2010025</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>285</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>2010026</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>265</v>
+      <c r="F27" s="17" t="s">
+        <v>231</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2010027</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>267</v>
+        <v>47</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>292</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2010028</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2010029</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>176</v>
+        <v>293</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>2010030</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2010031</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="140.4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>2010032</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2010033</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="234" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="255" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2010034</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="374.4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="388" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2010035</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>2010036</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="323" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2010037</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>2010038</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>186</v>
+        <v>295</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="323" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2010039</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>187</v>
+        <v>296</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="202.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2010040</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="156" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>2010041</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>2010042</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>190</v>
+        <v>297</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="312" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2010043</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="296.39999999999998" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="323" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>2010044</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="394" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2010045</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="245" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>2010046</v>
       </c>
@@ -2903,589 +2973,838 @@
         <v>23</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="234" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2010047</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>76</v>
+      <c r="B48" s="23" t="s">
+        <v>280</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>277</v>
+        <v>73</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>298</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2010048</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>79</v>
+      <c r="B49" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>278</v>
+        <v>75</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>241</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="249.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I49" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2010049</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>280</v>
+        <v>77</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>243</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>2010050</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>83</v>
+      <c r="B51" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="156" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2010051</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>84</v>
+      <c r="B52" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>196</v>
+        <v>299</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>2010052</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>121</v>
+      <c r="B53" s="23" t="s">
+        <v>281</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>197</v>
+        <v>300</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>2010053</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>211</v>
+      <c r="B54" s="24" t="s">
+        <v>184</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A55" s="24">
+        <v>2010054</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I54" s="7" t="s">
+      <c r="D55" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A56" s="24">
+        <v>2010055</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A57" s="24">
+        <v>2010056</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+      <c r="A58" s="24">
+        <v>2010057</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A59" s="24">
+        <v>2010058</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A60" s="24">
+        <v>2010059</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A61" s="24">
+        <v>2010060</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A62" s="24">
+        <v>2010061</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H62" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I62" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A63" s="24">
+        <v>2010062</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="24" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>2010054</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="D63" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A64" s="24">
+        <v>2010063</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H64" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I64" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A65" s="24">
+        <v>2010064</v>
+      </c>
+      <c r="B65" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>2010055</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>2010056</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="C65" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="265.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>2010057</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E58" s="1" t="s">
+      <c r="F65" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I65" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="388" x14ac:dyDescent="0.2">
+      <c r="A66" s="24">
+        <v>2010065</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>2010058</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="F66" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H66" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I66" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A67" s="24">
+        <v>2010066</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I67" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A68" s="24">
+        <v>2010067</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H68" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+      <c r="A69" s="24">
+        <v>2010068</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+      <c r="A70" s="24">
+        <v>2010069</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A71" s="24">
+        <v>2010070</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I71" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A72" s="24">
+        <v>2010071</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C72" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E59" s="1" t="s">
+      <c r="D72" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="G72" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>2010059</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="H72" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I72" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>2010060</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>2010061</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="2" t="s">
+    </row>
+    <row r="73" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A73" s="24">
+        <v>2010072</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="C73" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>2010062</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>2010063</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>2010064</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="343.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="6">
-        <v>2010065</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
+      <c r="D73" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I73" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="272" x14ac:dyDescent="0.2">
+      <c r="A74" s="24">
+        <v>2010073</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H74" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I74" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A75" s="24">
+        <v>2010074</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I75" s="24" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3493,5 +3812,11 @@
     <hyperlink ref="I36" r:id="rId2" display="http://aeri.website/aeri-2010-conference-schedule/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>